--- a/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
+++ b/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="124">
   <si>
     <t>Text_ID</t>
   </si>
@@ -134,25 +134,16 @@
     <t>Das Resultat der Nationalratswahlen im Kanton #Kanton_d im Überblick:</t>
   </si>
   <si>
-    <t>Die Verteilung und die allfällige Veränderung gegenüber den Wahlen im Jahr 2019 sieht wie folgt aus:</t>
-  </si>
-  <si>
     <t>Tabelle</t>
   </si>
   <si>
     <t>((Tabelle: Partei, Anzahl Sitze, Veränderung zu 2019))</t>
   </si>
   <si>
-    <t>Vorschlag: Tabelle nur mit Sitzanzahl 2023 und Veränderung zu 2019, so hat man alle Infos in zwei Spalten abgedeckt, Parteistärke und Veränderung</t>
-  </si>
-  <si>
     <t>Outro_Tabelle</t>
   </si>
   <si>
     <t>Anzahl Sitze 2023: #Sitze_NR.</t>
-  </si>
-  <si>
-    <t>Anzahl Sitze 2023 macht mehr Sinn.</t>
   </si>
   <si>
     <t>Outro_Tabelle_Special_ZH</t>
@@ -204,13 +195,13 @@
     <t>Headline_ein_Sitz_Mann</t>
   </si>
   <si>
-    <t>Die gewählte Nationalrätin aus dem Kanton #Kanton_d</t>
+    <t>Der gewählte Nationalrat aus dem Kanton #Kanton_d</t>
   </si>
   <si>
     <t>Headline_ein_Sitz_Frau</t>
   </si>
   <si>
-    <t>Der gewählte Nationalrat aus dem Kanton #Kanton_d</t>
+    <t>Die gewählte Nationalrätin aus dem Kanton #Kanton_d</t>
   </si>
   <si>
     <t>Das Stimmvolk des Kantons #Kanton_d hat folgende Personen in den Nationalrat gewählt:</t>
@@ -1047,68 +1038,62 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="B16" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="E16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
@@ -1116,10 +1101,10 @@
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -6138,7 +6123,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -6146,10 +6131,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -6157,10 +6142,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -6168,21 +6153,20 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
-      <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
@@ -6204,7 +6188,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -6212,10 +6196,10 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
@@ -6223,10 +6207,10 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
@@ -6234,49 +6218,49 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -6284,10 +6268,10 @@
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
@@ -11286,7 +11270,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -11294,80 +11278,80 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="B5" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -11383,10 +11367,10 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
@@ -11394,23 +11378,23 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -11418,10 +11402,10 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
@@ -11429,23 +11413,23 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -11456,20 +11440,20 @@
         <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
@@ -11477,10 +11461,10 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -11488,10 +11472,10 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
@@ -11499,7 +11483,7 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="6"/>
@@ -16547,7 +16531,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -16558,7 +16542,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -16577,10 +16561,10 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -16588,10 +16572,10 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -21659,7 +21643,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -21670,7 +21654,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -21687,20 +21671,20 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -25777,7 +25761,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -25788,7 +25772,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -25805,25 +25789,25 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
@@ -29898,7 +29882,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -29909,7 +29893,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -29928,23 +29912,23 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -34987,26 +34971,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="28" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="B3" s="29" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4">

--- a/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
+++ b/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="120">
   <si>
     <t>Text_ID</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Catchword</t>
   </si>
   <si>
-    <t>Wahlen 2023 - #Kanton_short_d NR</t>
+    <t>Wahlen 2023 - #Kanton_short_d NR END</t>
   </si>
   <si>
     <t>Headline</t>
@@ -68,7 +68,7 @@
     <t>Im Kanton #Kanton_d haben #Parteien_Gewinner Sitze gewonnen.</t>
   </si>
   <si>
-    <t>#Partien_Gewinner: Liste der Parteien, z.B.: die SVP, die GLP und die Grünen</t>
+    <t>#Partien_Gewinner: Liste der Parteien, z.B.: die SVP (+2), die GLP (+1) und die Grünen (+1)</t>
   </si>
   <si>
     <t>Text_ein_Gewinner_ein_Sitz</t>
@@ -80,7 +80,7 @@
     <t>Text_ein_Gewinner_mehrere_Sitze</t>
   </si>
   <si>
-    <t>Im Kanton #Kanton_d hat die #Partei_Gewinner Sitze gewonnen.</t>
+    <t>Im Kanton #Kanton_d hat die #Partei_Gewinner #Sitze_Gewinn Sitze gewonnen.</t>
   </si>
   <si>
     <t>Text_mehrere_Verlierer</t>
@@ -89,7 +89,7 @@
     <t>#Parteien_Verlierer haben Sitze verloren.</t>
   </si>
   <si>
-    <t>#Parteien_Verlierer: Liste der Parteien, z.B.: Die SVP, die GLP und die Grünen</t>
+    <t>#Parteien_Verlierer: Liste der Parteien, z.B.: Die SVP (-2), die GLP (-1) und die Grünen (-1)</t>
   </si>
   <si>
     <t>Text_ein_Verlierer_ein_Sitz</t>
@@ -101,7 +101,7 @@
     <t>Text_ein_Verlierer_mehrere_Sitze</t>
   </si>
   <si>
-    <t>Die #Partei_Verlierer hat mehrere Sitze verloren.</t>
+    <t>Die #Partei_Verlierer hat #Sitze_Verlust Sitze verloren.</t>
   </si>
   <si>
     <t>Text_Special_keineGewinnerVerlierer</t>
@@ -164,47 +164,28 @@
     <t>BS einen Sitz weniger</t>
   </si>
   <si>
-    <t>Quellenangabe</t>
-  </si>
-  <si>
-    <t>Quelle: Bundesamt für Statistik (BFS)</t>
-  </si>
-  <si>
     <t>Disclaimer</t>
   </si>
   <si>
-    <t>Diese Meldung wurde automatisch auf Grundlage der aktuellsten
-Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.</t>
+    <t>Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.</t>
   </si>
   <si>
-    <t>Die gewählten Nationalrätinnen und Nationalräte aus dem Kanton #Kanton_d</t>
-  </si>
-  <si>
-    <t>Headline_nur_Maenner</t>
-  </si>
-  <si>
-    <t>Die gewählten Nationalräte aus dem Kanton #Kanton_d</t>
-  </si>
-  <si>
-    <t>Headline_nur_Frauen</t>
-  </si>
-  <si>
-    <t>Die gewählten Nationalrätinnen aus dem Kanton #Kanton_d</t>
+    <t>Die gewählten Nationalratsmitglieder im Kanton #Kanton_d</t>
   </si>
   <si>
     <t>Headline_ein_Sitz_Mann</t>
   </si>
   <si>
-    <t>Der gewählte Nationalrat aus dem Kanton #Kanton_d</t>
+    <t>Der gewählte Nationalrat im Kanton #Kanton_d</t>
   </si>
   <si>
     <t>Headline_ein_Sitz_Frau</t>
   </si>
   <si>
-    <t>Die gewählte Nationalrätin aus dem Kanton #Kanton_d</t>
+    <t>Die gewählte Nationalrätin im Kanton #Kanton_d</t>
   </si>
   <si>
-    <t>Das Stimmvolk des Kantons #Kanton_d hat folgende Personen in den Nationalrat gewählt:</t>
+    <t>Das Stimmvolk des Kantons #Kanton_d hat folgende #Sitze_NR Personen in den Nationalrat gewählt:</t>
   </si>
   <si>
     <t>Intro_Tabelle_ein_Sitz</t>
@@ -313,7 +294,7 @@
     <t>Lead_NobodyElected</t>
   </si>
   <si>
-    <t>Im Kanton #Kanton_d hat es niemand der Kandidierenden im ersten Wahlgang in den Ständerat geschafft. Es wird am #Datum_SR zu einem zweiten Wahlgang kommen.</t>
+    <t>Im Kanton #Kanton_d ist im ersten Wahlgang noch niemand in den Ständerat gewählt worden. Es wird am #Datum_SR zu einem zweiten Wahlgang kommen.</t>
   </si>
   <si>
     <t>Lead_Abgewählt</t>
@@ -337,13 +318,16 @@
     <t>dürfte wahrscheinlich nicht nötig sein, oder?</t>
   </si>
   <si>
-    <t>((Tabelle: Gewählt sind/Nicht gewählt wurden, Partei, bisher/neu/, Anzahl Stimmen))</t>
+    <t>((Tabelle: Stimmen haben erhalten, Partei, bisher/neu/, Anzahl Stimmen))</t>
   </si>
   <si>
     <t>Variante: eine Ständerat-Meldung für alle Szenarien (SR_TwoElected, SR_OneElected, SR_NobodyElected, SR_Abgewaehlt)</t>
   </si>
   <si>
     <t>Lead</t>
+  </si>
+  <si>
+    <t>((Tabelle: Gewählt sind/Nicht gewählt wurden, Partei, bisher/neu/, Anzahl Stimmen))</t>
   </si>
   <si>
     <t>Lead_gewaehlt</t>
@@ -358,13 +342,16 @@
     <t>Niemand im ersten Wahlgang in den Ständerat gewählt</t>
   </si>
   <si>
+    <t>Im Kanton #Kanton_d hat es niemand der Kandidierenden im ersten Wahlgang in den Ständerat geschafft. Es wird am #Datum_SR zu einem zweiten Wahlgang kommen.</t>
+  </si>
+  <si>
     <t>Lead_additional_Info</t>
   </si>
   <si>
     <t>Ob sich nochmals alle Kandidierenden zur Wahl stellen, ist noch unklar.</t>
   </si>
   <si>
-    <t>NOCH ANSCHAUEN ... ich würde weglassen</t>
+    <t>NOCH ANSCHAUEN ... ich würde weglassen (ich auch beli)</t>
   </si>
   <si>
     <t>Lead_abgewaehlt</t>
@@ -1089,7 +1076,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1100,30 +1087,26 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="A21" s="17"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="17"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24">
       <c r="A24" s="18"/>
@@ -1135,7 +1118,7 @@
     <row r="25">
       <c r="A25" s="18"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="7"/>
       <c r="E25" s="9"/>
     </row>
@@ -1156,7 +1139,7 @@
     <row r="28">
       <c r="A28" s="18"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="9"/>
     </row>
@@ -1173,6 +1156,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="9"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31">
       <c r="A31" s="18"/>
@@ -1183,8 +1167,8 @@
       <c r="F31" s="21"/>
     </row>
     <row r="32">
-      <c r="A32" s="18"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="9"/>
@@ -1199,9 +1183,9 @@
       <c r="F33" s="21"/>
     </row>
     <row r="34">
-      <c r="A34" s="22"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7"/>
       <c r="E34" s="9"/>
       <c r="F34" s="21"/>
@@ -1217,7 +1201,7 @@
     <row r="36">
       <c r="A36" s="18"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="7"/>
       <c r="E36" s="9"/>
       <c r="F36" s="21"/>
@@ -1231,8 +1215,7 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38">
-      <c r="A38" s="18"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="23"/>
       <c r="D38" s="7"/>
       <c r="E38" s="9"/>
@@ -1246,26 +1229,24 @@
       <c r="F39" s="21"/>
     </row>
     <row r="40">
-      <c r="B40" s="6"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="21"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41">
-      <c r="B41" s="24"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="25"/>
-      <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="25"/>
     </row>
     <row r="42">
-      <c r="B42" s="26"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="25"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43">
-      <c r="B43" s="21"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="25"/>
       <c r="E43" s="9"/>
     </row>
@@ -6055,17 +6036,12 @@
       <c r="E1000" s="9"/>
     </row>
     <row r="1001">
-      <c r="B1001" s="25"/>
       <c r="C1001" s="25"/>
       <c r="E1001" s="9"/>
     </row>
     <row r="1002">
       <c r="C1002" s="25"/>
       <c r="E1002" s="9"/>
-    </row>
-    <row r="1003">
-      <c r="C1003" s="25"/>
-      <c r="E1003" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6123,7 +6099,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -6131,21 +6107,20 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -6153,42 +6128,43 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>59</v>
+      <c r="A7" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
+      <c r="A8" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -6196,29 +6172,33 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>38</v>
+      <c r="A11" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>40</v>
+      <c r="A12" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>65</v>
@@ -6230,93 +6210,78 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
-        <v>67</v>
+      <c r="A13" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="A14" s="17"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="A15" s="18"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="A16" s="18"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="7"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" s="18"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" s="18"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="7"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" s="18"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="20"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21">
       <c r="A21" s="18"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="20"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="18"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="20"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="9"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23">
       <c r="A23" s="18"/>
@@ -6324,17 +6289,19 @@
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="9"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24">
-      <c r="A24" s="18"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="9"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="9"/>
@@ -6342,24 +6309,24 @@
     </row>
     <row r="26">
       <c r="A26" s="18"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="7"/>
       <c r="E26" s="9"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27">
-      <c r="A27" s="22"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="7"/>
       <c r="E27" s="9"/>
       <c r="F27" s="21"/>
     </row>
     <row r="28">
-      <c r="A28" s="22"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="7"/>
       <c r="E28" s="9"/>
       <c r="F28" s="21"/>
@@ -6367,63 +6334,54 @@
     <row r="29">
       <c r="A29" s="18"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="7"/>
       <c r="E29" s="9"/>
       <c r="F29" s="21"/>
     </row>
     <row r="30">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="7"/>
       <c r="E30" s="9"/>
       <c r="F30" s="21"/>
     </row>
     <row r="31">
-      <c r="A31" s="18"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="23"/>
       <c r="D31" s="7"/>
       <c r="E31" s="9"/>
       <c r="F31" s="21"/>
     </row>
     <row r="32">
-      <c r="A32" s="18"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="21"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33">
-      <c r="B33" s="6"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="25"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="21"/>
     </row>
     <row r="34">
-      <c r="B34" s="6"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="25"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="21"/>
     </row>
     <row r="35">
-      <c r="B35" s="24"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="25"/>
     </row>
     <row r="36">
-      <c r="B36" s="26"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37">
-      <c r="B37" s="21"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="E37" s="9"/>
     </row>
@@ -11203,27 +11161,12 @@
       <c r="E992" s="9"/>
     </row>
     <row r="993">
-      <c r="B993" s="25"/>
       <c r="C993" s="25"/>
       <c r="E993" s="9"/>
     </row>
     <row r="994">
-      <c r="B994" s="25"/>
       <c r="C994" s="25"/>
       <c r="E994" s="9"/>
-    </row>
-    <row r="995">
-      <c r="B995" s="25"/>
-      <c r="C995" s="25"/>
-      <c r="E995" s="9"/>
-    </row>
-    <row r="996">
-      <c r="C996" s="25"/>
-      <c r="E996" s="9"/>
-    </row>
-    <row r="997">
-      <c r="C997" s="25"/>
-      <c r="E997" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11270,7 +11213,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -11278,80 +11221,80 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -11367,10 +11310,10 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
@@ -11378,23 +11321,23 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -11402,10 +11345,10 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
@@ -11413,23 +11356,23 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -11440,12 +11383,12 @@
         <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -11453,14 +11396,14 @@
         <v>38</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -11471,21 +11414,17 @@
       <c r="E18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="s">
-        <v>50</v>
+      <c r="A19" s="17" t="s">
+        <v>100</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="19"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="9"/>
@@ -11524,6 +11463,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="9"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="18"/>
@@ -11531,7 +11471,6 @@
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="18"/>
@@ -11542,15 +11481,15 @@
     </row>
     <row r="28">
       <c r="A28" s="18"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="9"/>
     </row>
     <row r="29">
       <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="7"/>
       <c r="E29" s="9"/>
     </row>
@@ -11571,7 +11510,7 @@
     <row r="32">
       <c r="A32" s="18"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="20"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="9"/>
     </row>
@@ -11588,6 +11527,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="9"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35">
       <c r="A35" s="18"/>
@@ -11614,9 +11554,9 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38">
-      <c r="A38" s="18"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="7"/>
       <c r="E38" s="9"/>
       <c r="F38" s="21"/>
@@ -11630,9 +11570,9 @@
       <c r="F39" s="21"/>
     </row>
     <row r="40">
-      <c r="A40" s="22"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="7"/>
       <c r="E40" s="9"/>
       <c r="F40" s="21"/>
@@ -11662,37 +11602,34 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44">
-      <c r="A44" s="18"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="21"/>
+      <c r="F44" s="25"/>
     </row>
     <row r="45">
       <c r="B45" s="6"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="25"/>
     </row>
     <row r="46">
-      <c r="B46" s="6"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="25"/>
       <c r="E46" s="9"/>
     </row>
     <row r="47">
-      <c r="B47" s="24"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="E47" s="9"/>
     </row>
     <row r="48">
-      <c r="B48" s="26"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="25"/>
       <c r="E48" s="9"/>
     </row>
     <row r="49">
-      <c r="B49" s="21"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="E49" s="9"/>
     </row>
@@ -16480,11 +16417,6 @@
       <c r="B1006" s="25"/>
       <c r="C1006" s="25"/>
       <c r="E1006" s="9"/>
-    </row>
-    <row r="1007">
-      <c r="B1007" s="25"/>
-      <c r="C1007" s="25"/>
-      <c r="E1007" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -16531,7 +16463,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -16542,7 +16474,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -16561,10 +16493,10 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -16575,7 +16507,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -21643,7 +21575,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -21654,7 +21586,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -21671,20 +21603,20 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -25761,7 +25693,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -25772,7 +25704,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -25789,25 +25721,25 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -29882,7 +29814,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -29893,7 +29825,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -29912,23 +29844,23 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -34971,26 +34903,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4">

--- a/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
+++ b/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="139">
   <si>
     <t>Text_ID</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Catchword</t>
   </si>
   <si>
-    <t>Wahlen 2023 - #Kanton_short_d NR END</t>
+    <t>Wahlen 2023 - #Kanton_short NR END</t>
   </si>
   <si>
     <t>Headline</t>
@@ -65,7 +65,7 @@
     <t>Text_mehrere_Gewinner</t>
   </si>
   <si>
-    <t>Im Kanton #Kanton_d haben #Parteien_Gewinner Sitze gewonnen.</t>
+    <t>Im Kanton #Kanton_d haben #Parteien_Gewinner_d Sitze gewonnen.</t>
   </si>
   <si>
     <t>#Partien_Gewinner: Liste der Parteien, z.B.: die SVP (+2), die GLP (+1) und die Grünen (+1)</t>
@@ -74,19 +74,19 @@
     <t>Text_ein_Gewinner_ein_Sitz</t>
   </si>
   <si>
-    <t>Im Kanton #Kanton_d hat die #Partei_Gewinner einen Sitz gewonnen.</t>
+    <t>Im Kanton #Kanton_d hat die #Partei_Gewinner_d einen Sitz gewonnen.</t>
   </si>
   <si>
     <t>Text_ein_Gewinner_mehrere_Sitze</t>
   </si>
   <si>
-    <t>Im Kanton #Kanton_d hat die #Partei_Gewinner #Sitze_Gewinn Sitze gewonnen.</t>
+    <t>Im Kanton #Kanton_d hat die #Partei_Gewinner_d #Sitze_Gewinn Sitze gewonnen.</t>
   </si>
   <si>
     <t>Text_mehrere_Verlierer</t>
   </si>
   <si>
-    <t>#Parteien_Verlierer haben Sitze verloren.</t>
+    <t>#Parteien_Verlierer_d haben Sitze verloren.</t>
   </si>
   <si>
     <t>#Parteien_Verlierer: Liste der Parteien, z.B.: Die SVP (-2), die GLP (-1) und die Grünen (-1)</t>
@@ -95,13 +95,13 @@
     <t>Text_ein_Verlierer_ein_Sitz</t>
   </si>
   <si>
-    <t>Die #Partei_Verlierer hat einen Sitz verloren.</t>
+    <t>Die #Partei_Verlierer_d hat einen Sitz verloren.</t>
   </si>
   <si>
     <t>Text_ein_Verlierer_mehrere_Sitze</t>
   </si>
   <si>
-    <t>Die #Partei_Verlierer hat #Sitze_Verlust Sitze verloren.</t>
+    <t>Die #Partei_Verlierer_d hat #Sitze_Verlust Sitze verloren.</t>
   </si>
   <si>
     <t>Text_Special_keineGewinnerVerlierer</t>
@@ -113,7 +113,7 @@
     <t>Text_Special_keinGewinner_ein_Verlierer</t>
   </si>
   <si>
-    <t>Weil im Kanton Basel-Stadt ein Sitz weniger vergeben wurde als 2019, hat keine Partei Sitze gewonnen. Die #Partei_Verlierer hat einen Sitz verloren.</t>
+    <t>Weil im Kanton Basel-Stadt ein Sitz weniger vergeben wurde als 2019, hat keine Partei Sitze gewonnen. Die #Partei_Verlierer_d hat einen Sitz verloren.</t>
   </si>
   <si>
     <t>BS: ein Sitz weniger, wenn kein Gewinner aber nur ein Verlierer</t>
@@ -122,7 +122,7 @@
     <t>Text_Special_keinVerlierer_ein_Gewinner</t>
   </si>
   <si>
-    <t>Im Kanton Zürich hat die #Partei_Gewinner einen Sitz gewonnen. Weil ein Sitz mehr vergeben wurde als 2019, gab es keine Verlierer.</t>
+    <t>Im Kanton Zürich hat die #Partei_Gewinner_d einen Sitz gewonnen. Weil ein Sitz mehr vergeben wurde als 2019, gab es keine Verlierer.</t>
   </si>
   <si>
     <t>ZH: ein Sitz mehr, wenn kein Verlierer und nur ein Gewinner (unwahrscheinlich)</t>
@@ -207,7 +207,7 @@
     <t>Abgewaehlte_mehrere</t>
   </si>
   <si>
-    <t>Nicht wiedergewählt wurden: #Abgewaehlte_NR.</t>
+    <t>Nicht wiedergewählt wurden: #Abgewaehlte_NR_d.</t>
   </si>
   <si>
     <t>#Abgewaehlte_NR: Liste der Abgewählten, z.B.: Vorname Name (Partei), Vorname Name (Partei) und Vorname Name (Partei)</t>
@@ -216,13 +216,10 @@
     <t>Abgewaehlte_eine_Person</t>
   </si>
   <si>
-    <t>Nicht wiedergewählt wurde #Abgewaehlt_NR.</t>
+    <t>Nicht wiedergewählt wurde #Abgewaehlt_NR_d.</t>
   </si>
   <si>
-    <t>ALLG: Formulierung "ABGEWÄHLT" ODER "NICHT WIEDERGEWÄHLT"</t>
-  </si>
-  <si>
-    <t>Wahlen 2023 - #Kanton_short_d SR</t>
+    <t>Wahlen 2023 - #Kanton_short SR</t>
   </si>
   <si>
     <t>Headline_TwoElected</t>
@@ -375,10 +372,70 @@
     <t>Genf</t>
   </si>
   <si>
+    <t>#Kanton_f</t>
+  </si>
+  <si>
+    <t>Genève</t>
+  </si>
+  <si>
     <t>#Kanton_i</t>
   </si>
   <si>
     <t>Genevra</t>
+  </si>
+  <si>
+    <t>#Kanton_short</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>#Parteien_Gewinner_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> die SVP (+2), die GLP (+1) und die Grünen (+1)</t>
+  </si>
+  <si>
+    <t>#Parteien_Gewinner_f</t>
+  </si>
+  <si>
+    <t>#Parteien_Gewinner_i</t>
+  </si>
+  <si>
+    <t>#Parteien_Verlierer_d</t>
+  </si>
+  <si>
+    <t>die SVP (-2), die GLP (-1) und die Grünen (-1)</t>
+  </si>
+  <si>
+    <t>#Parteien_Verlierer_f</t>
+  </si>
+  <si>
+    <t>#Parteien_Verlierer_i</t>
+  </si>
+  <si>
+    <t>#Abgewaehlte_NR_d</t>
+  </si>
+  <si>
+    <t>Vorname Name (Partei), Vorname Name (Partei) und Vorname Name (Partei)</t>
+  </si>
+  <si>
+    <t>#Abgewaehlte_NR_f</t>
+  </si>
+  <si>
+    <t>#Abgewaehlte_NR_i</t>
+  </si>
+  <si>
+    <t>#Abgewaehlt_NR_d</t>
+  </si>
+  <si>
+    <t>Vorname Name (Partei)</t>
+  </si>
+  <si>
+    <t>#Abgewaehlt_NR_f</t>
+  </si>
+  <si>
+    <t>#Abgewaehlt_NR_i</t>
   </si>
 </sst>
 </file>
@@ -584,16 +641,16 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6205,9 +6262,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
@@ -11213,7 +11268,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -11221,80 +11276,80 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -11310,10 +11365,10 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
@@ -11321,23 +11376,23 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -11345,10 +11400,10 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
@@ -11356,23 +11411,23 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -11383,12 +11438,12 @@
         <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
@@ -11396,7 +11451,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
@@ -11415,7 +11470,7 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="6"/>
@@ -16463,7 +16518,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -16474,7 +16529,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -16493,10 +16548,10 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -16507,7 +16562,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -21575,7 +21630,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -21586,7 +21641,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -21603,20 +21658,20 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -25693,7 +25748,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -25704,7 +25759,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -25721,25 +25776,25 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
@@ -29814,7 +29869,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -29825,7 +29880,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -29844,23 +29899,23 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -34899,2952 +34954,3967 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="41.25"/>
+    <col customWidth="1" min="2" max="2" width="67.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="28" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="29" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="B2" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="29" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="29" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="B3" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="29" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="29"/>
+      <c r="B4" s="29" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="5">
-      <c r="B5" s="29"/>
+      <c r="A5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="6">
-      <c r="B6" s="30"/>
+      <c r="A6" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="7">
+      <c r="A7" s="29" t="s">
+        <v>125</v>
+      </c>
       <c r="B7" s="30"/>
     </row>
     <row r="8">
+      <c r="A8" s="29" t="s">
+        <v>126</v>
+      </c>
       <c r="B8" s="30"/>
     </row>
     <row r="9">
-      <c r="B9" s="30"/>
+      <c r="A9" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="10">
+      <c r="A10" s="29" t="s">
+        <v>129</v>
+      </c>
       <c r="B10" s="30"/>
     </row>
     <row r="11">
+      <c r="A11" s="29" t="s">
+        <v>130</v>
+      </c>
       <c r="B11" s="30"/>
     </row>
     <row r="12">
-      <c r="B12" s="30"/>
+      <c r="A12" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="13">
+      <c r="A13" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="B13" s="30"/>
     </row>
     <row r="14">
+      <c r="A14" s="15" t="s">
+        <v>134</v>
+      </c>
       <c r="B14" s="30"/>
     </row>
     <row r="15">
-      <c r="B15" s="30"/>
+      <c r="A15" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="16">
+      <c r="A16" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="B16" s="30"/>
     </row>
     <row r="17">
+      <c r="A17" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="B17" s="30"/>
     </row>
     <row r="18">
+      <c r="A18" s="30"/>
       <c r="B18" s="30"/>
     </row>
     <row r="19">
+      <c r="A19" s="30"/>
       <c r="B19" s="30"/>
     </row>
     <row r="20">
+      <c r="A20" s="30"/>
       <c r="B20" s="30"/>
     </row>
     <row r="21">
+      <c r="A21" s="30"/>
       <c r="B21" s="30"/>
     </row>
     <row r="22">
+      <c r="A22" s="30"/>
       <c r="B22" s="30"/>
     </row>
     <row r="23">
+      <c r="A23" s="30"/>
       <c r="B23" s="30"/>
     </row>
     <row r="24">
+      <c r="A24" s="30"/>
       <c r="B24" s="30"/>
     </row>
     <row r="25">
+      <c r="A25" s="30"/>
       <c r="B25" s="30"/>
     </row>
     <row r="26">
+      <c r="A26" s="30"/>
       <c r="B26" s="30"/>
     </row>
     <row r="27">
+      <c r="A27" s="30"/>
       <c r="B27" s="30"/>
     </row>
     <row r="28">
+      <c r="A28" s="30"/>
       <c r="B28" s="30"/>
     </row>
     <row r="29">
+      <c r="A29" s="30"/>
       <c r="B29" s="30"/>
     </row>
     <row r="30">
+      <c r="A30" s="30"/>
       <c r="B30" s="30"/>
     </row>
     <row r="31">
+      <c r="A31" s="30"/>
       <c r="B31" s="30"/>
     </row>
     <row r="32">
+      <c r="A32" s="30"/>
       <c r="B32" s="30"/>
     </row>
     <row r="33">
+      <c r="A33" s="30"/>
       <c r="B33" s="30"/>
     </row>
     <row r="34">
+      <c r="A34" s="30"/>
       <c r="B34" s="30"/>
     </row>
     <row r="35">
+      <c r="A35" s="30"/>
       <c r="B35" s="30"/>
     </row>
     <row r="36">
+      <c r="A36" s="30"/>
       <c r="B36" s="30"/>
     </row>
     <row r="37">
+      <c r="A37" s="30"/>
       <c r="B37" s="30"/>
     </row>
     <row r="38">
+      <c r="A38" s="30"/>
       <c r="B38" s="30"/>
     </row>
     <row r="39">
+      <c r="A39" s="30"/>
       <c r="B39" s="30"/>
     </row>
     <row r="40">
+      <c r="A40" s="30"/>
       <c r="B40" s="30"/>
     </row>
     <row r="41">
+      <c r="A41" s="30"/>
       <c r="B41" s="30"/>
     </row>
     <row r="42">
+      <c r="A42" s="30"/>
       <c r="B42" s="30"/>
     </row>
     <row r="43">
+      <c r="A43" s="30"/>
       <c r="B43" s="30"/>
     </row>
     <row r="44">
+      <c r="A44" s="30"/>
       <c r="B44" s="30"/>
     </row>
     <row r="45">
+      <c r="A45" s="30"/>
       <c r="B45" s="30"/>
     </row>
     <row r="46">
+      <c r="A46" s="30"/>
       <c r="B46" s="30"/>
     </row>
     <row r="47">
+      <c r="A47" s="30"/>
       <c r="B47" s="30"/>
     </row>
     <row r="48">
+      <c r="A48" s="30"/>
       <c r="B48" s="30"/>
     </row>
     <row r="49">
+      <c r="A49" s="30"/>
       <c r="B49" s="30"/>
     </row>
     <row r="50">
+      <c r="A50" s="30"/>
       <c r="B50" s="30"/>
     </row>
     <row r="51">
+      <c r="A51" s="30"/>
       <c r="B51" s="30"/>
     </row>
     <row r="52">
+      <c r="A52" s="30"/>
       <c r="B52" s="30"/>
     </row>
     <row r="53">
+      <c r="A53" s="30"/>
       <c r="B53" s="30"/>
     </row>
     <row r="54">
+      <c r="A54" s="30"/>
       <c r="B54" s="30"/>
     </row>
     <row r="55">
+      <c r="A55" s="30"/>
       <c r="B55" s="30"/>
     </row>
     <row r="56">
+      <c r="A56" s="30"/>
       <c r="B56" s="30"/>
     </row>
     <row r="57">
+      <c r="A57" s="30"/>
       <c r="B57" s="30"/>
     </row>
     <row r="58">
+      <c r="A58" s="30"/>
       <c r="B58" s="30"/>
     </row>
     <row r="59">
+      <c r="A59" s="30"/>
       <c r="B59" s="30"/>
     </row>
     <row r="60">
+      <c r="A60" s="30"/>
       <c r="B60" s="30"/>
     </row>
     <row r="61">
+      <c r="A61" s="30"/>
       <c r="B61" s="30"/>
     </row>
     <row r="62">
+      <c r="A62" s="30"/>
       <c r="B62" s="30"/>
     </row>
     <row r="63">
+      <c r="A63" s="30"/>
       <c r="B63" s="30"/>
     </row>
     <row r="64">
+      <c r="A64" s="30"/>
       <c r="B64" s="30"/>
     </row>
     <row r="65">
+      <c r="A65" s="30"/>
       <c r="B65" s="30"/>
     </row>
     <row r="66">
+      <c r="A66" s="30"/>
       <c r="B66" s="30"/>
     </row>
     <row r="67">
+      <c r="A67" s="30"/>
       <c r="B67" s="30"/>
     </row>
     <row r="68">
+      <c r="A68" s="30"/>
       <c r="B68" s="30"/>
     </row>
     <row r="69">
+      <c r="A69" s="30"/>
       <c r="B69" s="30"/>
     </row>
     <row r="70">
+      <c r="A70" s="30"/>
       <c r="B70" s="30"/>
     </row>
     <row r="71">
+      <c r="A71" s="30"/>
       <c r="B71" s="30"/>
     </row>
     <row r="72">
+      <c r="A72" s="30"/>
       <c r="B72" s="30"/>
     </row>
     <row r="73">
+      <c r="A73" s="30"/>
       <c r="B73" s="30"/>
     </row>
     <row r="74">
+      <c r="A74" s="30"/>
       <c r="B74" s="30"/>
     </row>
     <row r="75">
+      <c r="A75" s="30"/>
       <c r="B75" s="30"/>
     </row>
     <row r="76">
+      <c r="A76" s="30"/>
       <c r="B76" s="30"/>
     </row>
     <row r="77">
+      <c r="A77" s="30"/>
       <c r="B77" s="30"/>
     </row>
     <row r="78">
+      <c r="A78" s="30"/>
       <c r="B78" s="30"/>
     </row>
     <row r="79">
+      <c r="A79" s="30"/>
       <c r="B79" s="30"/>
     </row>
     <row r="80">
+      <c r="A80" s="30"/>
       <c r="B80" s="30"/>
     </row>
     <row r="81">
+      <c r="A81" s="30"/>
       <c r="B81" s="30"/>
     </row>
     <row r="82">
+      <c r="A82" s="30"/>
       <c r="B82" s="30"/>
     </row>
     <row r="83">
+      <c r="A83" s="30"/>
       <c r="B83" s="30"/>
     </row>
     <row r="84">
+      <c r="A84" s="30"/>
       <c r="B84" s="30"/>
     </row>
     <row r="85">
+      <c r="A85" s="30"/>
       <c r="B85" s="30"/>
     </row>
     <row r="86">
+      <c r="A86" s="30"/>
       <c r="B86" s="30"/>
     </row>
     <row r="87">
+      <c r="A87" s="30"/>
       <c r="B87" s="30"/>
     </row>
     <row r="88">
+      <c r="A88" s="30"/>
       <c r="B88" s="30"/>
     </row>
     <row r="89">
+      <c r="A89" s="30"/>
       <c r="B89" s="30"/>
     </row>
     <row r="90">
+      <c r="A90" s="30"/>
       <c r="B90" s="30"/>
     </row>
     <row r="91">
+      <c r="A91" s="30"/>
       <c r="B91" s="30"/>
     </row>
     <row r="92">
+      <c r="A92" s="30"/>
       <c r="B92" s="30"/>
     </row>
     <row r="93">
+      <c r="A93" s="30"/>
       <c r="B93" s="30"/>
     </row>
     <row r="94">
+      <c r="A94" s="30"/>
       <c r="B94" s="30"/>
     </row>
     <row r="95">
+      <c r="A95" s="30"/>
       <c r="B95" s="30"/>
     </row>
     <row r="96">
+      <c r="A96" s="30"/>
       <c r="B96" s="30"/>
     </row>
     <row r="97">
+      <c r="A97" s="30"/>
       <c r="B97" s="30"/>
     </row>
     <row r="98">
+      <c r="A98" s="30"/>
       <c r="B98" s="30"/>
     </row>
     <row r="99">
+      <c r="A99" s="30"/>
       <c r="B99" s="30"/>
     </row>
     <row r="100">
+      <c r="A100" s="30"/>
       <c r="B100" s="30"/>
     </row>
     <row r="101">
+      <c r="A101" s="30"/>
       <c r="B101" s="30"/>
     </row>
     <row r="102">
+      <c r="A102" s="30"/>
       <c r="B102" s="30"/>
     </row>
     <row r="103">
+      <c r="A103" s="30"/>
       <c r="B103" s="30"/>
     </row>
     <row r="104">
+      <c r="A104" s="30"/>
       <c r="B104" s="30"/>
     </row>
     <row r="105">
+      <c r="A105" s="30"/>
       <c r="B105" s="30"/>
     </row>
     <row r="106">
+      <c r="A106" s="30"/>
       <c r="B106" s="30"/>
     </row>
     <row r="107">
+      <c r="A107" s="30"/>
       <c r="B107" s="30"/>
     </row>
     <row r="108">
+      <c r="A108" s="30"/>
       <c r="B108" s="30"/>
     </row>
     <row r="109">
+      <c r="A109" s="30"/>
       <c r="B109" s="30"/>
     </row>
     <row r="110">
+      <c r="A110" s="30"/>
       <c r="B110" s="30"/>
     </row>
     <row r="111">
+      <c r="A111" s="30"/>
       <c r="B111" s="30"/>
     </row>
     <row r="112">
+      <c r="A112" s="30"/>
       <c r="B112" s="30"/>
     </row>
     <row r="113">
+      <c r="A113" s="30"/>
       <c r="B113" s="30"/>
     </row>
     <row r="114">
+      <c r="A114" s="30"/>
       <c r="B114" s="30"/>
     </row>
     <row r="115">
+      <c r="A115" s="30"/>
       <c r="B115" s="30"/>
     </row>
     <row r="116">
+      <c r="A116" s="30"/>
       <c r="B116" s="30"/>
     </row>
     <row r="117">
+      <c r="A117" s="30"/>
       <c r="B117" s="30"/>
     </row>
     <row r="118">
+      <c r="A118" s="30"/>
       <c r="B118" s="30"/>
     </row>
     <row r="119">
+      <c r="A119" s="30"/>
       <c r="B119" s="30"/>
     </row>
     <row r="120">
+      <c r="A120" s="30"/>
       <c r="B120" s="30"/>
     </row>
     <row r="121">
+      <c r="A121" s="30"/>
       <c r="B121" s="30"/>
     </row>
     <row r="122">
+      <c r="A122" s="30"/>
       <c r="B122" s="30"/>
     </row>
     <row r="123">
+      <c r="A123" s="30"/>
       <c r="B123" s="30"/>
     </row>
     <row r="124">
+      <c r="A124" s="30"/>
       <c r="B124" s="30"/>
     </row>
     <row r="125">
+      <c r="A125" s="30"/>
       <c r="B125" s="30"/>
     </row>
     <row r="126">
+      <c r="A126" s="30"/>
       <c r="B126" s="30"/>
     </row>
     <row r="127">
+      <c r="A127" s="30"/>
       <c r="B127" s="30"/>
     </row>
     <row r="128">
+      <c r="A128" s="30"/>
       <c r="B128" s="30"/>
     </row>
     <row r="129">
+      <c r="A129" s="30"/>
       <c r="B129" s="30"/>
     </row>
     <row r="130">
+      <c r="A130" s="30"/>
       <c r="B130" s="30"/>
     </row>
     <row r="131">
+      <c r="A131" s="30"/>
       <c r="B131" s="30"/>
     </row>
     <row r="132">
+      <c r="A132" s="30"/>
       <c r="B132" s="30"/>
     </row>
     <row r="133">
+      <c r="A133" s="30"/>
       <c r="B133" s="30"/>
     </row>
     <row r="134">
+      <c r="A134" s="30"/>
       <c r="B134" s="30"/>
     </row>
     <row r="135">
+      <c r="A135" s="30"/>
       <c r="B135" s="30"/>
     </row>
     <row r="136">
+      <c r="A136" s="30"/>
       <c r="B136" s="30"/>
     </row>
     <row r="137">
+      <c r="A137" s="30"/>
       <c r="B137" s="30"/>
     </row>
     <row r="138">
+      <c r="A138" s="30"/>
       <c r="B138" s="30"/>
     </row>
     <row r="139">
+      <c r="A139" s="30"/>
       <c r="B139" s="30"/>
     </row>
     <row r="140">
+      <c r="A140" s="30"/>
       <c r="B140" s="30"/>
     </row>
     <row r="141">
+      <c r="A141" s="30"/>
       <c r="B141" s="30"/>
     </row>
     <row r="142">
+      <c r="A142" s="30"/>
       <c r="B142" s="30"/>
     </row>
     <row r="143">
+      <c r="A143" s="30"/>
       <c r="B143" s="30"/>
     </row>
     <row r="144">
+      <c r="A144" s="30"/>
       <c r="B144" s="30"/>
     </row>
     <row r="145">
+      <c r="A145" s="30"/>
       <c r="B145" s="30"/>
     </row>
     <row r="146">
+      <c r="A146" s="30"/>
       <c r="B146" s="30"/>
     </row>
     <row r="147">
+      <c r="A147" s="30"/>
       <c r="B147" s="30"/>
     </row>
     <row r="148">
+      <c r="A148" s="30"/>
       <c r="B148" s="30"/>
     </row>
     <row r="149">
+      <c r="A149" s="30"/>
       <c r="B149" s="30"/>
     </row>
     <row r="150">
+      <c r="A150" s="30"/>
       <c r="B150" s="30"/>
     </row>
     <row r="151">
+      <c r="A151" s="30"/>
       <c r="B151" s="30"/>
     </row>
     <row r="152">
+      <c r="A152" s="30"/>
       <c r="B152" s="30"/>
     </row>
     <row r="153">
+      <c r="A153" s="30"/>
       <c r="B153" s="30"/>
     </row>
     <row r="154">
+      <c r="A154" s="30"/>
       <c r="B154" s="30"/>
     </row>
     <row r="155">
+      <c r="A155" s="30"/>
       <c r="B155" s="30"/>
     </row>
     <row r="156">
+      <c r="A156" s="30"/>
       <c r="B156" s="30"/>
     </row>
     <row r="157">
+      <c r="A157" s="30"/>
       <c r="B157" s="30"/>
     </row>
     <row r="158">
+      <c r="A158" s="30"/>
       <c r="B158" s="30"/>
     </row>
     <row r="159">
+      <c r="A159" s="30"/>
       <c r="B159" s="30"/>
     </row>
     <row r="160">
+      <c r="A160" s="30"/>
       <c r="B160" s="30"/>
     </row>
     <row r="161">
+      <c r="A161" s="30"/>
       <c r="B161" s="30"/>
     </row>
     <row r="162">
+      <c r="A162" s="30"/>
       <c r="B162" s="30"/>
     </row>
     <row r="163">
+      <c r="A163" s="30"/>
       <c r="B163" s="30"/>
     </row>
     <row r="164">
+      <c r="A164" s="30"/>
       <c r="B164" s="30"/>
     </row>
     <row r="165">
+      <c r="A165" s="30"/>
       <c r="B165" s="30"/>
     </row>
     <row r="166">
+      <c r="A166" s="30"/>
       <c r="B166" s="30"/>
     </row>
     <row r="167">
+      <c r="A167" s="30"/>
       <c r="B167" s="30"/>
     </row>
     <row r="168">
+      <c r="A168" s="30"/>
       <c r="B168" s="30"/>
     </row>
     <row r="169">
+      <c r="A169" s="30"/>
       <c r="B169" s="30"/>
     </row>
     <row r="170">
+      <c r="A170" s="30"/>
       <c r="B170" s="30"/>
     </row>
     <row r="171">
+      <c r="A171" s="30"/>
       <c r="B171" s="30"/>
     </row>
     <row r="172">
+      <c r="A172" s="30"/>
       <c r="B172" s="30"/>
     </row>
     <row r="173">
+      <c r="A173" s="30"/>
       <c r="B173" s="30"/>
     </row>
     <row r="174">
+      <c r="A174" s="30"/>
       <c r="B174" s="30"/>
     </row>
     <row r="175">
+      <c r="A175" s="30"/>
       <c r="B175" s="30"/>
     </row>
     <row r="176">
+      <c r="A176" s="30"/>
       <c r="B176" s="30"/>
     </row>
     <row r="177">
+      <c r="A177" s="30"/>
       <c r="B177" s="30"/>
     </row>
     <row r="178">
+      <c r="A178" s="30"/>
       <c r="B178" s="30"/>
     </row>
     <row r="179">
+      <c r="A179" s="30"/>
       <c r="B179" s="30"/>
     </row>
     <row r="180">
+      <c r="A180" s="30"/>
       <c r="B180" s="30"/>
     </row>
     <row r="181">
+      <c r="A181" s="30"/>
       <c r="B181" s="30"/>
     </row>
     <row r="182">
+      <c r="A182" s="30"/>
       <c r="B182" s="30"/>
     </row>
     <row r="183">
+      <c r="A183" s="30"/>
       <c r="B183" s="30"/>
     </row>
     <row r="184">
+      <c r="A184" s="30"/>
       <c r="B184" s="30"/>
     </row>
     <row r="185">
+      <c r="A185" s="30"/>
       <c r="B185" s="30"/>
     </row>
     <row r="186">
+      <c r="A186" s="30"/>
       <c r="B186" s="30"/>
     </row>
     <row r="187">
+      <c r="A187" s="30"/>
       <c r="B187" s="30"/>
     </row>
     <row r="188">
+      <c r="A188" s="30"/>
       <c r="B188" s="30"/>
     </row>
     <row r="189">
+      <c r="A189" s="30"/>
       <c r="B189" s="30"/>
     </row>
     <row r="190">
+      <c r="A190" s="30"/>
       <c r="B190" s="30"/>
     </row>
     <row r="191">
+      <c r="A191" s="30"/>
       <c r="B191" s="30"/>
     </row>
     <row r="192">
+      <c r="A192" s="30"/>
       <c r="B192" s="30"/>
     </row>
     <row r="193">
+      <c r="A193" s="30"/>
       <c r="B193" s="30"/>
     </row>
     <row r="194">
+      <c r="A194" s="30"/>
       <c r="B194" s="30"/>
     </row>
     <row r="195">
+      <c r="A195" s="30"/>
       <c r="B195" s="30"/>
     </row>
     <row r="196">
+      <c r="A196" s="30"/>
       <c r="B196" s="30"/>
     </row>
     <row r="197">
+      <c r="A197" s="30"/>
       <c r="B197" s="30"/>
     </row>
     <row r="198">
+      <c r="A198" s="30"/>
       <c r="B198" s="30"/>
     </row>
     <row r="199">
+      <c r="A199" s="30"/>
       <c r="B199" s="30"/>
     </row>
     <row r="200">
+      <c r="A200" s="30"/>
       <c r="B200" s="30"/>
     </row>
     <row r="201">
+      <c r="A201" s="30"/>
       <c r="B201" s="30"/>
     </row>
     <row r="202">
+      <c r="A202" s="30"/>
       <c r="B202" s="30"/>
     </row>
     <row r="203">
+      <c r="A203" s="30"/>
       <c r="B203" s="30"/>
     </row>
     <row r="204">
+      <c r="A204" s="30"/>
       <c r="B204" s="30"/>
     </row>
     <row r="205">
+      <c r="A205" s="30"/>
       <c r="B205" s="30"/>
     </row>
     <row r="206">
+      <c r="A206" s="30"/>
       <c r="B206" s="30"/>
     </row>
     <row r="207">
+      <c r="A207" s="30"/>
       <c r="B207" s="30"/>
     </row>
     <row r="208">
+      <c r="A208" s="30"/>
       <c r="B208" s="30"/>
     </row>
     <row r="209">
+      <c r="A209" s="30"/>
       <c r="B209" s="30"/>
     </row>
     <row r="210">
+      <c r="A210" s="30"/>
       <c r="B210" s="30"/>
     </row>
     <row r="211">
+      <c r="A211" s="30"/>
       <c r="B211" s="30"/>
     </row>
     <row r="212">
+      <c r="A212" s="30"/>
       <c r="B212" s="30"/>
     </row>
     <row r="213">
+      <c r="A213" s="30"/>
       <c r="B213" s="30"/>
     </row>
     <row r="214">
+      <c r="A214" s="30"/>
       <c r="B214" s="30"/>
     </row>
     <row r="215">
+      <c r="A215" s="30"/>
       <c r="B215" s="30"/>
     </row>
     <row r="216">
+      <c r="A216" s="30"/>
       <c r="B216" s="30"/>
     </row>
     <row r="217">
+      <c r="A217" s="30"/>
       <c r="B217" s="30"/>
     </row>
     <row r="218">
+      <c r="A218" s="30"/>
       <c r="B218" s="30"/>
     </row>
     <row r="219">
+      <c r="A219" s="30"/>
       <c r="B219" s="30"/>
     </row>
     <row r="220">
+      <c r="A220" s="30"/>
       <c r="B220" s="30"/>
     </row>
     <row r="221">
+      <c r="A221" s="30"/>
       <c r="B221" s="30"/>
     </row>
     <row r="222">
+      <c r="A222" s="30"/>
       <c r="B222" s="30"/>
     </row>
     <row r="223">
+      <c r="A223" s="30"/>
       <c r="B223" s="30"/>
     </row>
     <row r="224">
+      <c r="A224" s="30"/>
       <c r="B224" s="30"/>
     </row>
     <row r="225">
+      <c r="A225" s="30"/>
       <c r="B225" s="30"/>
     </row>
     <row r="226">
+      <c r="A226" s="30"/>
       <c r="B226" s="30"/>
     </row>
     <row r="227">
+      <c r="A227" s="30"/>
       <c r="B227" s="30"/>
     </row>
     <row r="228">
+      <c r="A228" s="30"/>
       <c r="B228" s="30"/>
     </row>
     <row r="229">
+      <c r="A229" s="30"/>
       <c r="B229" s="30"/>
     </row>
     <row r="230">
+      <c r="A230" s="30"/>
       <c r="B230" s="30"/>
     </row>
     <row r="231">
+      <c r="A231" s="30"/>
       <c r="B231" s="30"/>
     </row>
     <row r="232">
+      <c r="A232" s="30"/>
       <c r="B232" s="30"/>
     </row>
     <row r="233">
+      <c r="A233" s="30"/>
       <c r="B233" s="30"/>
     </row>
     <row r="234">
+      <c r="A234" s="30"/>
       <c r="B234" s="30"/>
     </row>
     <row r="235">
+      <c r="A235" s="30"/>
       <c r="B235" s="30"/>
     </row>
     <row r="236">
+      <c r="A236" s="30"/>
       <c r="B236" s="30"/>
     </row>
     <row r="237">
+      <c r="A237" s="30"/>
       <c r="B237" s="30"/>
     </row>
     <row r="238">
+      <c r="A238" s="30"/>
       <c r="B238" s="30"/>
     </row>
     <row r="239">
+      <c r="A239" s="30"/>
       <c r="B239" s="30"/>
     </row>
     <row r="240">
+      <c r="A240" s="30"/>
       <c r="B240" s="30"/>
     </row>
     <row r="241">
+      <c r="A241" s="30"/>
       <c r="B241" s="30"/>
     </row>
     <row r="242">
+      <c r="A242" s="30"/>
       <c r="B242" s="30"/>
     </row>
     <row r="243">
+      <c r="A243" s="30"/>
       <c r="B243" s="30"/>
     </row>
     <row r="244">
+      <c r="A244" s="30"/>
       <c r="B244" s="30"/>
     </row>
     <row r="245">
+      <c r="A245" s="30"/>
       <c r="B245" s="30"/>
     </row>
     <row r="246">
+      <c r="A246" s="30"/>
       <c r="B246" s="30"/>
     </row>
     <row r="247">
+      <c r="A247" s="30"/>
       <c r="B247" s="30"/>
     </row>
     <row r="248">
+      <c r="A248" s="30"/>
       <c r="B248" s="30"/>
     </row>
     <row r="249">
+      <c r="A249" s="30"/>
       <c r="B249" s="30"/>
     </row>
     <row r="250">
+      <c r="A250" s="30"/>
       <c r="B250" s="30"/>
     </row>
     <row r="251">
+      <c r="A251" s="30"/>
       <c r="B251" s="30"/>
     </row>
     <row r="252">
+      <c r="A252" s="30"/>
       <c r="B252" s="30"/>
     </row>
     <row r="253">
+      <c r="A253" s="30"/>
       <c r="B253" s="30"/>
     </row>
     <row r="254">
+      <c r="A254" s="30"/>
       <c r="B254" s="30"/>
     </row>
     <row r="255">
+      <c r="A255" s="30"/>
       <c r="B255" s="30"/>
     </row>
     <row r="256">
+      <c r="A256" s="30"/>
       <c r="B256" s="30"/>
     </row>
     <row r="257">
+      <c r="A257" s="30"/>
       <c r="B257" s="30"/>
     </row>
     <row r="258">
+      <c r="A258" s="30"/>
       <c r="B258" s="30"/>
     </row>
     <row r="259">
+      <c r="A259" s="30"/>
       <c r="B259" s="30"/>
     </row>
     <row r="260">
+      <c r="A260" s="30"/>
       <c r="B260" s="30"/>
     </row>
     <row r="261">
+      <c r="A261" s="30"/>
       <c r="B261" s="30"/>
     </row>
     <row r="262">
+      <c r="A262" s="30"/>
       <c r="B262" s="30"/>
     </row>
     <row r="263">
+      <c r="A263" s="30"/>
       <c r="B263" s="30"/>
     </row>
     <row r="264">
+      <c r="A264" s="30"/>
       <c r="B264" s="30"/>
     </row>
     <row r="265">
+      <c r="A265" s="30"/>
       <c r="B265" s="30"/>
     </row>
     <row r="266">
+      <c r="A266" s="30"/>
       <c r="B266" s="30"/>
     </row>
     <row r="267">
+      <c r="A267" s="30"/>
       <c r="B267" s="30"/>
     </row>
     <row r="268">
+      <c r="A268" s="30"/>
       <c r="B268" s="30"/>
     </row>
     <row r="269">
+      <c r="A269" s="30"/>
       <c r="B269" s="30"/>
     </row>
     <row r="270">
+      <c r="A270" s="30"/>
       <c r="B270" s="30"/>
     </row>
     <row r="271">
+      <c r="A271" s="30"/>
       <c r="B271" s="30"/>
     </row>
     <row r="272">
+      <c r="A272" s="30"/>
       <c r="B272" s="30"/>
     </row>
     <row r="273">
+      <c r="A273" s="30"/>
       <c r="B273" s="30"/>
     </row>
     <row r="274">
+      <c r="A274" s="30"/>
       <c r="B274" s="30"/>
     </row>
     <row r="275">
+      <c r="A275" s="30"/>
       <c r="B275" s="30"/>
     </row>
     <row r="276">
+      <c r="A276" s="30"/>
       <c r="B276" s="30"/>
     </row>
     <row r="277">
+      <c r="A277" s="30"/>
       <c r="B277" s="30"/>
     </row>
     <row r="278">
+      <c r="A278" s="30"/>
       <c r="B278" s="30"/>
     </row>
     <row r="279">
+      <c r="A279" s="30"/>
       <c r="B279" s="30"/>
     </row>
     <row r="280">
+      <c r="A280" s="30"/>
       <c r="B280" s="30"/>
     </row>
     <row r="281">
+      <c r="A281" s="30"/>
       <c r="B281" s="30"/>
     </row>
     <row r="282">
+      <c r="A282" s="30"/>
       <c r="B282" s="30"/>
     </row>
     <row r="283">
+      <c r="A283" s="30"/>
       <c r="B283" s="30"/>
     </row>
     <row r="284">
+      <c r="A284" s="30"/>
       <c r="B284" s="30"/>
     </row>
     <row r="285">
+      <c r="A285" s="30"/>
       <c r="B285" s="30"/>
     </row>
     <row r="286">
+      <c r="A286" s="30"/>
       <c r="B286" s="30"/>
     </row>
     <row r="287">
+      <c r="A287" s="30"/>
       <c r="B287" s="30"/>
     </row>
     <row r="288">
+      <c r="A288" s="30"/>
       <c r="B288" s="30"/>
     </row>
     <row r="289">
+      <c r="A289" s="30"/>
       <c r="B289" s="30"/>
     </row>
     <row r="290">
+      <c r="A290" s="30"/>
       <c r="B290" s="30"/>
     </row>
     <row r="291">
+      <c r="A291" s="30"/>
       <c r="B291" s="30"/>
     </row>
     <row r="292">
+      <c r="A292" s="30"/>
       <c r="B292" s="30"/>
     </row>
     <row r="293">
+      <c r="A293" s="30"/>
       <c r="B293" s="30"/>
     </row>
     <row r="294">
+      <c r="A294" s="30"/>
       <c r="B294" s="30"/>
     </row>
     <row r="295">
+      <c r="A295" s="30"/>
       <c r="B295" s="30"/>
     </row>
     <row r="296">
+      <c r="A296" s="30"/>
       <c r="B296" s="30"/>
     </row>
     <row r="297">
+      <c r="A297" s="30"/>
       <c r="B297" s="30"/>
     </row>
     <row r="298">
+      <c r="A298" s="30"/>
       <c r="B298" s="30"/>
     </row>
     <row r="299">
+      <c r="A299" s="30"/>
       <c r="B299" s="30"/>
     </row>
     <row r="300">
+      <c r="A300" s="30"/>
       <c r="B300" s="30"/>
     </row>
     <row r="301">
+      <c r="A301" s="30"/>
       <c r="B301" s="30"/>
     </row>
     <row r="302">
+      <c r="A302" s="30"/>
       <c r="B302" s="30"/>
     </row>
     <row r="303">
+      <c r="A303" s="30"/>
       <c r="B303" s="30"/>
     </row>
     <row r="304">
+      <c r="A304" s="30"/>
       <c r="B304" s="30"/>
     </row>
     <row r="305">
+      <c r="A305" s="30"/>
       <c r="B305" s="30"/>
     </row>
     <row r="306">
+      <c r="A306" s="30"/>
       <c r="B306" s="30"/>
     </row>
     <row r="307">
+      <c r="A307" s="30"/>
       <c r="B307" s="30"/>
     </row>
     <row r="308">
+      <c r="A308" s="30"/>
       <c r="B308" s="30"/>
     </row>
     <row r="309">
+      <c r="A309" s="30"/>
       <c r="B309" s="30"/>
     </row>
     <row r="310">
+      <c r="A310" s="30"/>
       <c r="B310" s="30"/>
     </row>
     <row r="311">
+      <c r="A311" s="30"/>
       <c r="B311" s="30"/>
     </row>
     <row r="312">
+      <c r="A312" s="30"/>
       <c r="B312" s="30"/>
     </row>
     <row r="313">
+      <c r="A313" s="30"/>
       <c r="B313" s="30"/>
     </row>
     <row r="314">
+      <c r="A314" s="30"/>
       <c r="B314" s="30"/>
     </row>
     <row r="315">
+      <c r="A315" s="30"/>
       <c r="B315" s="30"/>
     </row>
     <row r="316">
+      <c r="A316" s="30"/>
       <c r="B316" s="30"/>
     </row>
     <row r="317">
+      <c r="A317" s="30"/>
       <c r="B317" s="30"/>
     </row>
     <row r="318">
+      <c r="A318" s="30"/>
       <c r="B318" s="30"/>
     </row>
     <row r="319">
+      <c r="A319" s="30"/>
       <c r="B319" s="30"/>
     </row>
     <row r="320">
+      <c r="A320" s="30"/>
       <c r="B320" s="30"/>
     </row>
     <row r="321">
+      <c r="A321" s="30"/>
       <c r="B321" s="30"/>
     </row>
     <row r="322">
+      <c r="A322" s="30"/>
       <c r="B322" s="30"/>
     </row>
     <row r="323">
+      <c r="A323" s="30"/>
       <c r="B323" s="30"/>
     </row>
     <row r="324">
+      <c r="A324" s="30"/>
       <c r="B324" s="30"/>
     </row>
     <row r="325">
+      <c r="A325" s="30"/>
       <c r="B325" s="30"/>
     </row>
     <row r="326">
+      <c r="A326" s="30"/>
       <c r="B326" s="30"/>
     </row>
     <row r="327">
+      <c r="A327" s="30"/>
       <c r="B327" s="30"/>
     </row>
     <row r="328">
+      <c r="A328" s="30"/>
       <c r="B328" s="30"/>
     </row>
     <row r="329">
+      <c r="A329" s="30"/>
       <c r="B329" s="30"/>
     </row>
     <row r="330">
+      <c r="A330" s="30"/>
       <c r="B330" s="30"/>
     </row>
     <row r="331">
+      <c r="A331" s="30"/>
       <c r="B331" s="30"/>
     </row>
     <row r="332">
+      <c r="A332" s="30"/>
       <c r="B332" s="30"/>
     </row>
     <row r="333">
+      <c r="A333" s="30"/>
       <c r="B333" s="30"/>
     </row>
     <row r="334">
+      <c r="A334" s="30"/>
       <c r="B334" s="30"/>
     </row>
     <row r="335">
+      <c r="A335" s="30"/>
       <c r="B335" s="30"/>
     </row>
     <row r="336">
+      <c r="A336" s="30"/>
       <c r="B336" s="30"/>
     </row>
     <row r="337">
+      <c r="A337" s="30"/>
       <c r="B337" s="30"/>
     </row>
     <row r="338">
+      <c r="A338" s="30"/>
       <c r="B338" s="30"/>
     </row>
     <row r="339">
+      <c r="A339" s="30"/>
       <c r="B339" s="30"/>
     </row>
     <row r="340">
+      <c r="A340" s="30"/>
       <c r="B340" s="30"/>
     </row>
     <row r="341">
+      <c r="A341" s="30"/>
       <c r="B341" s="30"/>
     </row>
     <row r="342">
+      <c r="A342" s="30"/>
       <c r="B342" s="30"/>
     </row>
     <row r="343">
+      <c r="A343" s="30"/>
       <c r="B343" s="30"/>
     </row>
     <row r="344">
+      <c r="A344" s="30"/>
       <c r="B344" s="30"/>
     </row>
     <row r="345">
+      <c r="A345" s="30"/>
       <c r="B345" s="30"/>
     </row>
     <row r="346">
+      <c r="A346" s="30"/>
       <c r="B346" s="30"/>
     </row>
     <row r="347">
+      <c r="A347" s="30"/>
       <c r="B347" s="30"/>
     </row>
     <row r="348">
+      <c r="A348" s="30"/>
       <c r="B348" s="30"/>
     </row>
     <row r="349">
+      <c r="A349" s="30"/>
       <c r="B349" s="30"/>
     </row>
     <row r="350">
+      <c r="A350" s="30"/>
       <c r="B350" s="30"/>
     </row>
     <row r="351">
+      <c r="A351" s="30"/>
       <c r="B351" s="30"/>
     </row>
     <row r="352">
+      <c r="A352" s="30"/>
       <c r="B352" s="30"/>
     </row>
     <row r="353">
+      <c r="A353" s="30"/>
       <c r="B353" s="30"/>
     </row>
     <row r="354">
+      <c r="A354" s="30"/>
       <c r="B354" s="30"/>
     </row>
     <row r="355">
+      <c r="A355" s="30"/>
       <c r="B355" s="30"/>
     </row>
     <row r="356">
+      <c r="A356" s="30"/>
       <c r="B356" s="30"/>
     </row>
     <row r="357">
+      <c r="A357" s="30"/>
       <c r="B357" s="30"/>
     </row>
     <row r="358">
+      <c r="A358" s="30"/>
       <c r="B358" s="30"/>
     </row>
     <row r="359">
+      <c r="A359" s="30"/>
       <c r="B359" s="30"/>
     </row>
     <row r="360">
+      <c r="A360" s="30"/>
       <c r="B360" s="30"/>
     </row>
     <row r="361">
+      <c r="A361" s="30"/>
       <c r="B361" s="30"/>
     </row>
     <row r="362">
+      <c r="A362" s="30"/>
       <c r="B362" s="30"/>
     </row>
     <row r="363">
+      <c r="A363" s="30"/>
       <c r="B363" s="30"/>
     </row>
     <row r="364">
+      <c r="A364" s="30"/>
       <c r="B364" s="30"/>
     </row>
     <row r="365">
+      <c r="A365" s="30"/>
       <c r="B365" s="30"/>
     </row>
     <row r="366">
+      <c r="A366" s="30"/>
       <c r="B366" s="30"/>
     </row>
     <row r="367">
+      <c r="A367" s="30"/>
       <c r="B367" s="30"/>
     </row>
     <row r="368">
+      <c r="A368" s="30"/>
       <c r="B368" s="30"/>
     </row>
     <row r="369">
+      <c r="A369" s="30"/>
       <c r="B369" s="30"/>
     </row>
     <row r="370">
+      <c r="A370" s="30"/>
       <c r="B370" s="30"/>
     </row>
     <row r="371">
+      <c r="A371" s="30"/>
       <c r="B371" s="30"/>
     </row>
     <row r="372">
+      <c r="A372" s="30"/>
       <c r="B372" s="30"/>
     </row>
     <row r="373">
+      <c r="A373" s="30"/>
       <c r="B373" s="30"/>
     </row>
     <row r="374">
+      <c r="A374" s="30"/>
       <c r="B374" s="30"/>
     </row>
     <row r="375">
+      <c r="A375" s="30"/>
       <c r="B375" s="30"/>
     </row>
     <row r="376">
+      <c r="A376" s="30"/>
       <c r="B376" s="30"/>
     </row>
     <row r="377">
+      <c r="A377" s="30"/>
       <c r="B377" s="30"/>
     </row>
     <row r="378">
+      <c r="A378" s="30"/>
       <c r="B378" s="30"/>
     </row>
     <row r="379">
+      <c r="A379" s="30"/>
       <c r="B379" s="30"/>
     </row>
     <row r="380">
+      <c r="A380" s="30"/>
       <c r="B380" s="30"/>
     </row>
     <row r="381">
+      <c r="A381" s="30"/>
       <c r="B381" s="30"/>
     </row>
     <row r="382">
+      <c r="A382" s="30"/>
       <c r="B382" s="30"/>
     </row>
     <row r="383">
+      <c r="A383" s="30"/>
       <c r="B383" s="30"/>
     </row>
     <row r="384">
+      <c r="A384" s="30"/>
       <c r="B384" s="30"/>
     </row>
     <row r="385">
+      <c r="A385" s="30"/>
       <c r="B385" s="30"/>
     </row>
     <row r="386">
+      <c r="A386" s="30"/>
       <c r="B386" s="30"/>
     </row>
     <row r="387">
+      <c r="A387" s="30"/>
       <c r="B387" s="30"/>
     </row>
     <row r="388">
+      <c r="A388" s="30"/>
       <c r="B388" s="30"/>
     </row>
     <row r="389">
+      <c r="A389" s="30"/>
       <c r="B389" s="30"/>
     </row>
     <row r="390">
+      <c r="A390" s="30"/>
       <c r="B390" s="30"/>
     </row>
     <row r="391">
+      <c r="A391" s="30"/>
       <c r="B391" s="30"/>
     </row>
     <row r="392">
+      <c r="A392" s="30"/>
       <c r="B392" s="30"/>
     </row>
     <row r="393">
+      <c r="A393" s="30"/>
       <c r="B393" s="30"/>
     </row>
     <row r="394">
+      <c r="A394" s="30"/>
       <c r="B394" s="30"/>
     </row>
     <row r="395">
+      <c r="A395" s="30"/>
       <c r="B395" s="30"/>
     </row>
     <row r="396">
+      <c r="A396" s="30"/>
       <c r="B396" s="30"/>
     </row>
     <row r="397">
+      <c r="A397" s="30"/>
       <c r="B397" s="30"/>
     </row>
     <row r="398">
+      <c r="A398" s="30"/>
       <c r="B398" s="30"/>
     </row>
     <row r="399">
+      <c r="A399" s="30"/>
       <c r="B399" s="30"/>
     </row>
     <row r="400">
+      <c r="A400" s="30"/>
       <c r="B400" s="30"/>
     </row>
     <row r="401">
+      <c r="A401" s="30"/>
       <c r="B401" s="30"/>
     </row>
     <row r="402">
+      <c r="A402" s="30"/>
       <c r="B402" s="30"/>
     </row>
     <row r="403">
+      <c r="A403" s="30"/>
       <c r="B403" s="30"/>
     </row>
     <row r="404">
+      <c r="A404" s="30"/>
       <c r="B404" s="30"/>
     </row>
     <row r="405">
+      <c r="A405" s="30"/>
       <c r="B405" s="30"/>
     </row>
     <row r="406">
+      <c r="A406" s="30"/>
       <c r="B406" s="30"/>
     </row>
     <row r="407">
+      <c r="A407" s="30"/>
       <c r="B407" s="30"/>
     </row>
     <row r="408">
+      <c r="A408" s="30"/>
       <c r="B408" s="30"/>
     </row>
     <row r="409">
+      <c r="A409" s="30"/>
       <c r="B409" s="30"/>
     </row>
     <row r="410">
+      <c r="A410" s="30"/>
       <c r="B410" s="30"/>
     </row>
     <row r="411">
+      <c r="A411" s="30"/>
       <c r="B411" s="30"/>
     </row>
     <row r="412">
+      <c r="A412" s="30"/>
       <c r="B412" s="30"/>
     </row>
     <row r="413">
+      <c r="A413" s="30"/>
       <c r="B413" s="30"/>
     </row>
     <row r="414">
+      <c r="A414" s="30"/>
       <c r="B414" s="30"/>
     </row>
     <row r="415">
+      <c r="A415" s="30"/>
       <c r="B415" s="30"/>
     </row>
     <row r="416">
+      <c r="A416" s="30"/>
       <c r="B416" s="30"/>
     </row>
     <row r="417">
+      <c r="A417" s="30"/>
       <c r="B417" s="30"/>
     </row>
     <row r="418">
+      <c r="A418" s="30"/>
       <c r="B418" s="30"/>
     </row>
     <row r="419">
+      <c r="A419" s="30"/>
       <c r="B419" s="30"/>
     </row>
     <row r="420">
+      <c r="A420" s="30"/>
       <c r="B420" s="30"/>
     </row>
     <row r="421">
+      <c r="A421" s="30"/>
       <c r="B421" s="30"/>
     </row>
     <row r="422">
+      <c r="A422" s="30"/>
       <c r="B422" s="30"/>
     </row>
     <row r="423">
+      <c r="A423" s="30"/>
       <c r="B423" s="30"/>
     </row>
     <row r="424">
+      <c r="A424" s="30"/>
       <c r="B424" s="30"/>
     </row>
     <row r="425">
+      <c r="A425" s="30"/>
       <c r="B425" s="30"/>
     </row>
     <row r="426">
+      <c r="A426" s="30"/>
       <c r="B426" s="30"/>
     </row>
     <row r="427">
+      <c r="A427" s="30"/>
       <c r="B427" s="30"/>
     </row>
     <row r="428">
+      <c r="A428" s="30"/>
       <c r="B428" s="30"/>
     </row>
     <row r="429">
+      <c r="A429" s="30"/>
       <c r="B429" s="30"/>
     </row>
     <row r="430">
+      <c r="A430" s="30"/>
       <c r="B430" s="30"/>
     </row>
     <row r="431">
+      <c r="A431" s="30"/>
       <c r="B431" s="30"/>
     </row>
     <row r="432">
+      <c r="A432" s="30"/>
       <c r="B432" s="30"/>
     </row>
     <row r="433">
+      <c r="A433" s="30"/>
       <c r="B433" s="30"/>
     </row>
     <row r="434">
+      <c r="A434" s="30"/>
       <c r="B434" s="30"/>
     </row>
     <row r="435">
+      <c r="A435" s="30"/>
       <c r="B435" s="30"/>
     </row>
     <row r="436">
+      <c r="A436" s="30"/>
       <c r="B436" s="30"/>
     </row>
     <row r="437">
+      <c r="A437" s="30"/>
       <c r="B437" s="30"/>
     </row>
     <row r="438">
+      <c r="A438" s="30"/>
       <c r="B438" s="30"/>
     </row>
     <row r="439">
+      <c r="A439" s="30"/>
       <c r="B439" s="30"/>
     </row>
     <row r="440">
+      <c r="A440" s="30"/>
       <c r="B440" s="30"/>
     </row>
     <row r="441">
+      <c r="A441" s="30"/>
       <c r="B441" s="30"/>
     </row>
     <row r="442">
+      <c r="A442" s="30"/>
       <c r="B442" s="30"/>
     </row>
     <row r="443">
+      <c r="A443" s="30"/>
       <c r="B443" s="30"/>
     </row>
     <row r="444">
+      <c r="A444" s="30"/>
       <c r="B444" s="30"/>
     </row>
     <row r="445">
+      <c r="A445" s="30"/>
       <c r="B445" s="30"/>
     </row>
     <row r="446">
+      <c r="A446" s="30"/>
       <c r="B446" s="30"/>
     </row>
     <row r="447">
+      <c r="A447" s="30"/>
       <c r="B447" s="30"/>
     </row>
     <row r="448">
+      <c r="A448" s="30"/>
       <c r="B448" s="30"/>
     </row>
     <row r="449">
+      <c r="A449" s="30"/>
       <c r="B449" s="30"/>
     </row>
     <row r="450">
+      <c r="A450" s="30"/>
       <c r="B450" s="30"/>
     </row>
     <row r="451">
+      <c r="A451" s="30"/>
       <c r="B451" s="30"/>
     </row>
     <row r="452">
+      <c r="A452" s="30"/>
       <c r="B452" s="30"/>
     </row>
     <row r="453">
+      <c r="A453" s="30"/>
       <c r="B453" s="30"/>
     </row>
     <row r="454">
+      <c r="A454" s="30"/>
       <c r="B454" s="30"/>
     </row>
     <row r="455">
+      <c r="A455" s="30"/>
       <c r="B455" s="30"/>
     </row>
     <row r="456">
+      <c r="A456" s="30"/>
       <c r="B456" s="30"/>
     </row>
     <row r="457">
+      <c r="A457" s="30"/>
       <c r="B457" s="30"/>
     </row>
     <row r="458">
+      <c r="A458" s="30"/>
       <c r="B458" s="30"/>
     </row>
     <row r="459">
+      <c r="A459" s="30"/>
       <c r="B459" s="30"/>
     </row>
     <row r="460">
+      <c r="A460" s="30"/>
       <c r="B460" s="30"/>
     </row>
     <row r="461">
+      <c r="A461" s="30"/>
       <c r="B461" s="30"/>
     </row>
     <row r="462">
+      <c r="A462" s="30"/>
       <c r="B462" s="30"/>
     </row>
     <row r="463">
+      <c r="A463" s="30"/>
       <c r="B463" s="30"/>
     </row>
     <row r="464">
+      <c r="A464" s="30"/>
       <c r="B464" s="30"/>
     </row>
     <row r="465">
+      <c r="A465" s="30"/>
       <c r="B465" s="30"/>
     </row>
     <row r="466">
+      <c r="A466" s="30"/>
       <c r="B466" s="30"/>
     </row>
     <row r="467">
+      <c r="A467" s="30"/>
       <c r="B467" s="30"/>
     </row>
     <row r="468">
+      <c r="A468" s="30"/>
       <c r="B468" s="30"/>
     </row>
     <row r="469">
+      <c r="A469" s="30"/>
       <c r="B469" s="30"/>
     </row>
     <row r="470">
+      <c r="A470" s="30"/>
       <c r="B470" s="30"/>
     </row>
     <row r="471">
+      <c r="A471" s="30"/>
       <c r="B471" s="30"/>
     </row>
     <row r="472">
+      <c r="A472" s="30"/>
       <c r="B472" s="30"/>
     </row>
     <row r="473">
+      <c r="A473" s="30"/>
       <c r="B473" s="30"/>
     </row>
     <row r="474">
+      <c r="A474" s="30"/>
       <c r="B474" s="30"/>
     </row>
     <row r="475">
+      <c r="A475" s="30"/>
       <c r="B475" s="30"/>
     </row>
     <row r="476">
+      <c r="A476" s="30"/>
       <c r="B476" s="30"/>
     </row>
     <row r="477">
+      <c r="A477" s="30"/>
       <c r="B477" s="30"/>
     </row>
     <row r="478">
+      <c r="A478" s="30"/>
       <c r="B478" s="30"/>
     </row>
     <row r="479">
+      <c r="A479" s="30"/>
       <c r="B479" s="30"/>
     </row>
     <row r="480">
+      <c r="A480" s="30"/>
       <c r="B480" s="30"/>
     </row>
     <row r="481">
+      <c r="A481" s="30"/>
       <c r="B481" s="30"/>
     </row>
     <row r="482">
+      <c r="A482" s="30"/>
       <c r="B482" s="30"/>
     </row>
     <row r="483">
+      <c r="A483" s="30"/>
       <c r="B483" s="30"/>
     </row>
     <row r="484">
+      <c r="A484" s="30"/>
       <c r="B484" s="30"/>
     </row>
     <row r="485">
+      <c r="A485" s="30"/>
       <c r="B485" s="30"/>
     </row>
     <row r="486">
+      <c r="A486" s="30"/>
       <c r="B486" s="30"/>
     </row>
     <row r="487">
+      <c r="A487" s="30"/>
       <c r="B487" s="30"/>
     </row>
     <row r="488">
+      <c r="A488" s="30"/>
       <c r="B488" s="30"/>
     </row>
     <row r="489">
+      <c r="A489" s="30"/>
       <c r="B489" s="30"/>
     </row>
     <row r="490">
+      <c r="A490" s="30"/>
       <c r="B490" s="30"/>
     </row>
     <row r="491">
+      <c r="A491" s="30"/>
       <c r="B491" s="30"/>
     </row>
     <row r="492">
+      <c r="A492" s="30"/>
       <c r="B492" s="30"/>
     </row>
     <row r="493">
+      <c r="A493" s="30"/>
       <c r="B493" s="30"/>
     </row>
     <row r="494">
+      <c r="A494" s="30"/>
       <c r="B494" s="30"/>
     </row>
     <row r="495">
+      <c r="A495" s="30"/>
       <c r="B495" s="30"/>
     </row>
     <row r="496">
+      <c r="A496" s="30"/>
       <c r="B496" s="30"/>
     </row>
     <row r="497">
+      <c r="A497" s="30"/>
       <c r="B497" s="30"/>
     </row>
     <row r="498">
+      <c r="A498" s="30"/>
       <c r="B498" s="30"/>
     </row>
     <row r="499">
+      <c r="A499" s="30"/>
       <c r="B499" s="30"/>
     </row>
     <row r="500">
+      <c r="A500" s="30"/>
       <c r="B500" s="30"/>
     </row>
     <row r="501">
+      <c r="A501" s="30"/>
       <c r="B501" s="30"/>
     </row>
     <row r="502">
+      <c r="A502" s="30"/>
       <c r="B502" s="30"/>
     </row>
     <row r="503">
+      <c r="A503" s="30"/>
       <c r="B503" s="30"/>
     </row>
     <row r="504">
+      <c r="A504" s="30"/>
       <c r="B504" s="30"/>
     </row>
     <row r="505">
+      <c r="A505" s="30"/>
       <c r="B505" s="30"/>
     </row>
     <row r="506">
+      <c r="A506" s="30"/>
       <c r="B506" s="30"/>
     </row>
     <row r="507">
+      <c r="A507" s="30"/>
       <c r="B507" s="30"/>
     </row>
     <row r="508">
+      <c r="A508" s="30"/>
       <c r="B508" s="30"/>
     </row>
     <row r="509">
+      <c r="A509" s="30"/>
       <c r="B509" s="30"/>
     </row>
     <row r="510">
+      <c r="A510" s="30"/>
       <c r="B510" s="30"/>
     </row>
     <row r="511">
+      <c r="A511" s="30"/>
       <c r="B511" s="30"/>
     </row>
     <row r="512">
+      <c r="A512" s="30"/>
       <c r="B512" s="30"/>
     </row>
     <row r="513">
+      <c r="A513" s="30"/>
       <c r="B513" s="30"/>
     </row>
     <row r="514">
+      <c r="A514" s="30"/>
       <c r="B514" s="30"/>
     </row>
     <row r="515">
+      <c r="A515" s="30"/>
       <c r="B515" s="30"/>
     </row>
     <row r="516">
+      <c r="A516" s="30"/>
       <c r="B516" s="30"/>
     </row>
     <row r="517">
+      <c r="A517" s="30"/>
       <c r="B517" s="30"/>
     </row>
     <row r="518">
+      <c r="A518" s="30"/>
       <c r="B518" s="30"/>
     </row>
     <row r="519">
+      <c r="A519" s="30"/>
       <c r="B519" s="30"/>
     </row>
     <row r="520">
+      <c r="A520" s="30"/>
       <c r="B520" s="30"/>
     </row>
     <row r="521">
+      <c r="A521" s="30"/>
       <c r="B521" s="30"/>
     </row>
     <row r="522">
+      <c r="A522" s="30"/>
       <c r="B522" s="30"/>
     </row>
     <row r="523">
+      <c r="A523" s="30"/>
       <c r="B523" s="30"/>
     </row>
     <row r="524">
+      <c r="A524" s="30"/>
       <c r="B524" s="30"/>
     </row>
     <row r="525">
+      <c r="A525" s="30"/>
       <c r="B525" s="30"/>
     </row>
     <row r="526">
+      <c r="A526" s="30"/>
       <c r="B526" s="30"/>
     </row>
     <row r="527">
+      <c r="A527" s="30"/>
       <c r="B527" s="30"/>
     </row>
     <row r="528">
+      <c r="A528" s="30"/>
       <c r="B528" s="30"/>
     </row>
     <row r="529">
+      <c r="A529" s="30"/>
       <c r="B529" s="30"/>
     </row>
     <row r="530">
+      <c r="A530" s="30"/>
       <c r="B530" s="30"/>
     </row>
     <row r="531">
+      <c r="A531" s="30"/>
       <c r="B531" s="30"/>
     </row>
     <row r="532">
+      <c r="A532" s="30"/>
       <c r="B532" s="30"/>
     </row>
     <row r="533">
+      <c r="A533" s="30"/>
       <c r="B533" s="30"/>
     </row>
     <row r="534">
+      <c r="A534" s="30"/>
       <c r="B534" s="30"/>
     </row>
     <row r="535">
+      <c r="A535" s="30"/>
       <c r="B535" s="30"/>
     </row>
     <row r="536">
+      <c r="A536" s="30"/>
       <c r="B536" s="30"/>
     </row>
     <row r="537">
+      <c r="A537" s="30"/>
       <c r="B537" s="30"/>
     </row>
     <row r="538">
+      <c r="A538" s="30"/>
       <c r="B538" s="30"/>
     </row>
     <row r="539">
+      <c r="A539" s="30"/>
       <c r="B539" s="30"/>
     </row>
     <row r="540">
+      <c r="A540" s="30"/>
       <c r="B540" s="30"/>
     </row>
     <row r="541">
+      <c r="A541" s="30"/>
       <c r="B541" s="30"/>
     </row>
     <row r="542">
+      <c r="A542" s="30"/>
       <c r="B542" s="30"/>
     </row>
     <row r="543">
+      <c r="A543" s="30"/>
       <c r="B543" s="30"/>
     </row>
     <row r="544">
+      <c r="A544" s="30"/>
       <c r="B544" s="30"/>
     </row>
     <row r="545">
+      <c r="A545" s="30"/>
       <c r="B545" s="30"/>
     </row>
     <row r="546">
+      <c r="A546" s="30"/>
       <c r="B546" s="30"/>
     </row>
     <row r="547">
+      <c r="A547" s="30"/>
       <c r="B547" s="30"/>
     </row>
     <row r="548">
+      <c r="A548" s="30"/>
       <c r="B548" s="30"/>
     </row>
     <row r="549">
+      <c r="A549" s="30"/>
       <c r="B549" s="30"/>
     </row>
     <row r="550">
+      <c r="A550" s="30"/>
       <c r="B550" s="30"/>
     </row>
     <row r="551">
+      <c r="A551" s="30"/>
       <c r="B551" s="30"/>
     </row>
     <row r="552">
+      <c r="A552" s="30"/>
       <c r="B552" s="30"/>
     </row>
     <row r="553">
+      <c r="A553" s="30"/>
       <c r="B553" s="30"/>
     </row>
     <row r="554">
+      <c r="A554" s="30"/>
       <c r="B554" s="30"/>
     </row>
     <row r="555">
+      <c r="A555" s="30"/>
       <c r="B555" s="30"/>
     </row>
     <row r="556">
+      <c r="A556" s="30"/>
       <c r="B556" s="30"/>
     </row>
     <row r="557">
+      <c r="A557" s="30"/>
       <c r="B557" s="30"/>
     </row>
     <row r="558">
+      <c r="A558" s="30"/>
       <c r="B558" s="30"/>
     </row>
     <row r="559">
+      <c r="A559" s="30"/>
       <c r="B559" s="30"/>
     </row>
     <row r="560">
+      <c r="A560" s="30"/>
       <c r="B560" s="30"/>
     </row>
     <row r="561">
+      <c r="A561" s="30"/>
       <c r="B561" s="30"/>
     </row>
     <row r="562">
+      <c r="A562" s="30"/>
       <c r="B562" s="30"/>
     </row>
     <row r="563">
+      <c r="A563" s="30"/>
       <c r="B563" s="30"/>
     </row>
     <row r="564">
+      <c r="A564" s="30"/>
       <c r="B564" s="30"/>
     </row>
     <row r="565">
+      <c r="A565" s="30"/>
       <c r="B565" s="30"/>
     </row>
     <row r="566">
+      <c r="A566" s="30"/>
       <c r="B566" s="30"/>
     </row>
     <row r="567">
+      <c r="A567" s="30"/>
       <c r="B567" s="30"/>
     </row>
     <row r="568">
+      <c r="A568" s="30"/>
       <c r="B568" s="30"/>
     </row>
     <row r="569">
+      <c r="A569" s="30"/>
       <c r="B569" s="30"/>
     </row>
     <row r="570">
+      <c r="A570" s="30"/>
       <c r="B570" s="30"/>
     </row>
     <row r="571">
+      <c r="A571" s="30"/>
       <c r="B571" s="30"/>
     </row>
     <row r="572">
+      <c r="A572" s="30"/>
       <c r="B572" s="30"/>
     </row>
     <row r="573">
+      <c r="A573" s="30"/>
       <c r="B573" s="30"/>
     </row>
     <row r="574">
+      <c r="A574" s="30"/>
       <c r="B574" s="30"/>
     </row>
     <row r="575">
+      <c r="A575" s="30"/>
       <c r="B575" s="30"/>
     </row>
     <row r="576">
+      <c r="A576" s="30"/>
       <c r="B576" s="30"/>
     </row>
     <row r="577">
+      <c r="A577" s="30"/>
       <c r="B577" s="30"/>
     </row>
     <row r="578">
+      <c r="A578" s="30"/>
       <c r="B578" s="30"/>
     </row>
     <row r="579">
+      <c r="A579" s="30"/>
       <c r="B579" s="30"/>
     </row>
     <row r="580">
+      <c r="A580" s="30"/>
       <c r="B580" s="30"/>
     </row>
     <row r="581">
+      <c r="A581" s="30"/>
       <c r="B581" s="30"/>
     </row>
     <row r="582">
+      <c r="A582" s="30"/>
       <c r="B582" s="30"/>
     </row>
     <row r="583">
+      <c r="A583" s="30"/>
       <c r="B583" s="30"/>
     </row>
     <row r="584">
+      <c r="A584" s="30"/>
       <c r="B584" s="30"/>
     </row>
     <row r="585">
+      <c r="A585" s="30"/>
       <c r="B585" s="30"/>
     </row>
     <row r="586">
+      <c r="A586" s="30"/>
       <c r="B586" s="30"/>
     </row>
     <row r="587">
+      <c r="A587" s="30"/>
       <c r="B587" s="30"/>
     </row>
     <row r="588">
+      <c r="A588" s="30"/>
       <c r="B588" s="30"/>
     </row>
     <row r="589">
+      <c r="A589" s="30"/>
       <c r="B589" s="30"/>
     </row>
     <row r="590">
+      <c r="A590" s="30"/>
       <c r="B590" s="30"/>
     </row>
     <row r="591">
+      <c r="A591" s="30"/>
       <c r="B591" s="30"/>
     </row>
     <row r="592">
+      <c r="A592" s="30"/>
       <c r="B592" s="30"/>
     </row>
     <row r="593">
+      <c r="A593" s="30"/>
       <c r="B593" s="30"/>
     </row>
     <row r="594">
+      <c r="A594" s="30"/>
       <c r="B594" s="30"/>
     </row>
     <row r="595">
+      <c r="A595" s="30"/>
       <c r="B595" s="30"/>
     </row>
     <row r="596">
+      <c r="A596" s="30"/>
       <c r="B596" s="30"/>
     </row>
     <row r="597">
+      <c r="A597" s="30"/>
       <c r="B597" s="30"/>
     </row>
     <row r="598">
+      <c r="A598" s="30"/>
       <c r="B598" s="30"/>
     </row>
     <row r="599">
+      <c r="A599" s="30"/>
       <c r="B599" s="30"/>
     </row>
     <row r="600">
+      <c r="A600" s="30"/>
       <c r="B600" s="30"/>
     </row>
     <row r="601">
+      <c r="A601" s="30"/>
       <c r="B601" s="30"/>
     </row>
     <row r="602">
+      <c r="A602" s="30"/>
       <c r="B602" s="30"/>
     </row>
     <row r="603">
+      <c r="A603" s="30"/>
       <c r="B603" s="30"/>
     </row>
     <row r="604">
+      <c r="A604" s="30"/>
       <c r="B604" s="30"/>
     </row>
     <row r="605">
+      <c r="A605" s="30"/>
       <c r="B605" s="30"/>
     </row>
     <row r="606">
+      <c r="A606" s="30"/>
       <c r="B606" s="30"/>
     </row>
     <row r="607">
+      <c r="A607" s="30"/>
       <c r="B607" s="30"/>
     </row>
     <row r="608">
+      <c r="A608" s="30"/>
       <c r="B608" s="30"/>
     </row>
     <row r="609">
+      <c r="A609" s="30"/>
       <c r="B609" s="30"/>
     </row>
     <row r="610">
+      <c r="A610" s="30"/>
       <c r="B610" s="30"/>
     </row>
     <row r="611">
+      <c r="A611" s="30"/>
       <c r="B611" s="30"/>
     </row>
     <row r="612">
+      <c r="A612" s="30"/>
       <c r="B612" s="30"/>
     </row>
     <row r="613">
+      <c r="A613" s="30"/>
       <c r="B613" s="30"/>
     </row>
     <row r="614">
+      <c r="A614" s="30"/>
       <c r="B614" s="30"/>
     </row>
     <row r="615">
+      <c r="A615" s="30"/>
       <c r="B615" s="30"/>
     </row>
     <row r="616">
+      <c r="A616" s="30"/>
       <c r="B616" s="30"/>
     </row>
     <row r="617">
+      <c r="A617" s="30"/>
       <c r="B617" s="30"/>
     </row>
     <row r="618">
+      <c r="A618" s="30"/>
       <c r="B618" s="30"/>
     </row>
     <row r="619">
+      <c r="A619" s="30"/>
       <c r="B619" s="30"/>
     </row>
     <row r="620">
+      <c r="A620" s="30"/>
       <c r="B620" s="30"/>
     </row>
     <row r="621">
+      <c r="A621" s="30"/>
       <c r="B621" s="30"/>
     </row>
     <row r="622">
+      <c r="A622" s="30"/>
       <c r="B622" s="30"/>
     </row>
     <row r="623">
+      <c r="A623" s="30"/>
       <c r="B623" s="30"/>
     </row>
     <row r="624">
+      <c r="A624" s="30"/>
       <c r="B624" s="30"/>
     </row>
     <row r="625">
+      <c r="A625" s="30"/>
       <c r="B625" s="30"/>
     </row>
     <row r="626">
+      <c r="A626" s="30"/>
       <c r="B626" s="30"/>
     </row>
     <row r="627">
+      <c r="A627" s="30"/>
       <c r="B627" s="30"/>
     </row>
     <row r="628">
+      <c r="A628" s="30"/>
       <c r="B628" s="30"/>
     </row>
     <row r="629">
+      <c r="A629" s="30"/>
       <c r="B629" s="30"/>
     </row>
     <row r="630">
+      <c r="A630" s="30"/>
       <c r="B630" s="30"/>
     </row>
     <row r="631">
+      <c r="A631" s="30"/>
       <c r="B631" s="30"/>
     </row>
     <row r="632">
+      <c r="A632" s="30"/>
       <c r="B632" s="30"/>
     </row>
     <row r="633">
+      <c r="A633" s="30"/>
       <c r="B633" s="30"/>
     </row>
     <row r="634">
+      <c r="A634" s="30"/>
       <c r="B634" s="30"/>
     </row>
     <row r="635">
+      <c r="A635" s="30"/>
       <c r="B635" s="30"/>
     </row>
     <row r="636">
+      <c r="A636" s="30"/>
       <c r="B636" s="30"/>
     </row>
     <row r="637">
+      <c r="A637" s="30"/>
       <c r="B637" s="30"/>
     </row>
     <row r="638">
+      <c r="A638" s="30"/>
       <c r="B638" s="30"/>
     </row>
     <row r="639">
+      <c r="A639" s="30"/>
       <c r="B639" s="30"/>
     </row>
     <row r="640">
+      <c r="A640" s="30"/>
       <c r="B640" s="30"/>
     </row>
     <row r="641">
+      <c r="A641" s="30"/>
       <c r="B641" s="30"/>
     </row>
     <row r="642">
+      <c r="A642" s="30"/>
       <c r="B642" s="30"/>
     </row>
     <row r="643">
+      <c r="A643" s="30"/>
       <c r="B643" s="30"/>
     </row>
     <row r="644">
+      <c r="A644" s="30"/>
       <c r="B644" s="30"/>
     </row>
     <row r="645">
+      <c r="A645" s="30"/>
       <c r="B645" s="30"/>
     </row>
     <row r="646">
+      <c r="A646" s="30"/>
       <c r="B646" s="30"/>
     </row>
     <row r="647">
+      <c r="A647" s="30"/>
       <c r="B647" s="30"/>
     </row>
     <row r="648">
+      <c r="A648" s="30"/>
       <c r="B648" s="30"/>
     </row>
     <row r="649">
+      <c r="A649" s="30"/>
       <c r="B649" s="30"/>
     </row>
     <row r="650">
+      <c r="A650" s="30"/>
       <c r="B650" s="30"/>
     </row>
     <row r="651">
+      <c r="A651" s="30"/>
       <c r="B651" s="30"/>
     </row>
     <row r="652">
+      <c r="A652" s="30"/>
       <c r="B652" s="30"/>
     </row>
     <row r="653">
+      <c r="A653" s="30"/>
       <c r="B653" s="30"/>
     </row>
     <row r="654">
+      <c r="A654" s="30"/>
       <c r="B654" s="30"/>
     </row>
     <row r="655">
+      <c r="A655" s="30"/>
       <c r="B655" s="30"/>
     </row>
     <row r="656">
+      <c r="A656" s="30"/>
       <c r="B656" s="30"/>
     </row>
     <row r="657">
+      <c r="A657" s="30"/>
       <c r="B657" s="30"/>
     </row>
     <row r="658">
+      <c r="A658" s="30"/>
       <c r="B658" s="30"/>
     </row>
     <row r="659">
+      <c r="A659" s="30"/>
       <c r="B659" s="30"/>
     </row>
     <row r="660">
+      <c r="A660" s="30"/>
       <c r="B660" s="30"/>
     </row>
     <row r="661">
+      <c r="A661" s="30"/>
       <c r="B661" s="30"/>
     </row>
     <row r="662">
+      <c r="A662" s="30"/>
       <c r="B662" s="30"/>
     </row>
     <row r="663">
+      <c r="A663" s="30"/>
       <c r="B663" s="30"/>
     </row>
     <row r="664">
+      <c r="A664" s="30"/>
       <c r="B664" s="30"/>
     </row>
     <row r="665">
+      <c r="A665" s="30"/>
       <c r="B665" s="30"/>
     </row>
     <row r="666">
+      <c r="A666" s="30"/>
       <c r="B666" s="30"/>
     </row>
     <row r="667">
+      <c r="A667" s="30"/>
       <c r="B667" s="30"/>
     </row>
     <row r="668">
+      <c r="A668" s="30"/>
       <c r="B668" s="30"/>
     </row>
     <row r="669">
+      <c r="A669" s="30"/>
       <c r="B669" s="30"/>
     </row>
     <row r="670">
+      <c r="A670" s="30"/>
       <c r="B670" s="30"/>
     </row>
     <row r="671">
+      <c r="A671" s="30"/>
       <c r="B671" s="30"/>
     </row>
     <row r="672">
+      <c r="A672" s="30"/>
       <c r="B672" s="30"/>
     </row>
     <row r="673">
+      <c r="A673" s="30"/>
       <c r="B673" s="30"/>
     </row>
     <row r="674">
+      <c r="A674" s="30"/>
       <c r="B674" s="30"/>
     </row>
     <row r="675">
+      <c r="A675" s="30"/>
       <c r="B675" s="30"/>
     </row>
     <row r="676">
+      <c r="A676" s="30"/>
       <c r="B676" s="30"/>
     </row>
     <row r="677">
+      <c r="A677" s="30"/>
       <c r="B677" s="30"/>
     </row>
     <row r="678">
+      <c r="A678" s="30"/>
       <c r="B678" s="30"/>
     </row>
     <row r="679">
+      <c r="A679" s="30"/>
       <c r="B679" s="30"/>
     </row>
     <row r="680">
+      <c r="A680" s="30"/>
       <c r="B680" s="30"/>
     </row>
     <row r="681">
+      <c r="A681" s="30"/>
       <c r="B681" s="30"/>
     </row>
     <row r="682">
+      <c r="A682" s="30"/>
       <c r="B682" s="30"/>
     </row>
     <row r="683">
+      <c r="A683" s="30"/>
       <c r="B683" s="30"/>
     </row>
     <row r="684">
+      <c r="A684" s="30"/>
       <c r="B684" s="30"/>
     </row>
     <row r="685">
+      <c r="A685" s="30"/>
       <c r="B685" s="30"/>
     </row>
     <row r="686">
+      <c r="A686" s="30"/>
       <c r="B686" s="30"/>
     </row>
     <row r="687">
+      <c r="A687" s="30"/>
       <c r="B687" s="30"/>
     </row>
     <row r="688">
+      <c r="A688" s="30"/>
       <c r="B688" s="30"/>
     </row>
     <row r="689">
+      <c r="A689" s="30"/>
       <c r="B689" s="30"/>
     </row>
     <row r="690">
+      <c r="A690" s="30"/>
       <c r="B690" s="30"/>
     </row>
     <row r="691">
+      <c r="A691" s="30"/>
       <c r="B691" s="30"/>
     </row>
     <row r="692">
+      <c r="A692" s="30"/>
       <c r="B692" s="30"/>
     </row>
     <row r="693">
+      <c r="A693" s="30"/>
       <c r="B693" s="30"/>
     </row>
     <row r="694">
+      <c r="A694" s="30"/>
       <c r="B694" s="30"/>
     </row>
     <row r="695">
+      <c r="A695" s="30"/>
       <c r="B695" s="30"/>
     </row>
     <row r="696">
+      <c r="A696" s="30"/>
       <c r="B696" s="30"/>
     </row>
     <row r="697">
+      <c r="A697" s="30"/>
       <c r="B697" s="30"/>
     </row>
     <row r="698">
+      <c r="A698" s="30"/>
       <c r="B698" s="30"/>
     </row>
     <row r="699">
+      <c r="A699" s="30"/>
       <c r="B699" s="30"/>
     </row>
     <row r="700">
+      <c r="A700" s="30"/>
       <c r="B700" s="30"/>
     </row>
     <row r="701">
+      <c r="A701" s="30"/>
       <c r="B701" s="30"/>
     </row>
     <row r="702">
+      <c r="A702" s="30"/>
       <c r="B702" s="30"/>
     </row>
     <row r="703">
+      <c r="A703" s="30"/>
       <c r="B703" s="30"/>
     </row>
     <row r="704">
+      <c r="A704" s="30"/>
       <c r="B704" s="30"/>
     </row>
     <row r="705">
+      <c r="A705" s="30"/>
       <c r="B705" s="30"/>
     </row>
     <row r="706">
+      <c r="A706" s="30"/>
       <c r="B706" s="30"/>
     </row>
     <row r="707">
+      <c r="A707" s="30"/>
       <c r="B707" s="30"/>
     </row>
     <row r="708">
+      <c r="A708" s="30"/>
       <c r="B708" s="30"/>
     </row>
     <row r="709">
+      <c r="A709" s="30"/>
       <c r="B709" s="30"/>
     </row>
     <row r="710">
+      <c r="A710" s="30"/>
       <c r="B710" s="30"/>
     </row>
     <row r="711">
+      <c r="A711" s="30"/>
       <c r="B711" s="30"/>
     </row>
     <row r="712">
+      <c r="A712" s="30"/>
       <c r="B712" s="30"/>
     </row>
     <row r="713">
+      <c r="A713" s="30"/>
       <c r="B713" s="30"/>
     </row>
     <row r="714">
+      <c r="A714" s="30"/>
       <c r="B714" s="30"/>
     </row>
     <row r="715">
+      <c r="A715" s="30"/>
       <c r="B715" s="30"/>
     </row>
     <row r="716">
+      <c r="A716" s="30"/>
       <c r="B716" s="30"/>
     </row>
     <row r="717">
+      <c r="A717" s="30"/>
       <c r="B717" s="30"/>
     </row>
     <row r="718">
+      <c r="A718" s="30"/>
       <c r="B718" s="30"/>
     </row>
     <row r="719">
+      <c r="A719" s="30"/>
       <c r="B719" s="30"/>
     </row>
     <row r="720">
+      <c r="A720" s="30"/>
       <c r="B720" s="30"/>
     </row>
     <row r="721">
+      <c r="A721" s="30"/>
       <c r="B721" s="30"/>
     </row>
     <row r="722">
+      <c r="A722" s="30"/>
       <c r="B722" s="30"/>
     </row>
     <row r="723">
+      <c r="A723" s="30"/>
       <c r="B723" s="30"/>
     </row>
     <row r="724">
+      <c r="A724" s="30"/>
       <c r="B724" s="30"/>
     </row>
     <row r="725">
+      <c r="A725" s="30"/>
       <c r="B725" s="30"/>
     </row>
     <row r="726">
+      <c r="A726" s="30"/>
       <c r="B726" s="30"/>
     </row>
     <row r="727">
+      <c r="A727" s="30"/>
       <c r="B727" s="30"/>
     </row>
     <row r="728">
+      <c r="A728" s="30"/>
       <c r="B728" s="30"/>
     </row>
     <row r="729">
+      <c r="A729" s="30"/>
       <c r="B729" s="30"/>
     </row>
     <row r="730">
+      <c r="A730" s="30"/>
       <c r="B730" s="30"/>
     </row>
     <row r="731">
+      <c r="A731" s="30"/>
       <c r="B731" s="30"/>
     </row>
     <row r="732">
+      <c r="A732" s="30"/>
       <c r="B732" s="30"/>
     </row>
     <row r="733">
+      <c r="A733" s="30"/>
       <c r="B733" s="30"/>
     </row>
     <row r="734">
+      <c r="A734" s="30"/>
       <c r="B734" s="30"/>
     </row>
     <row r="735">
+      <c r="A735" s="30"/>
       <c r="B735" s="30"/>
     </row>
     <row r="736">
+      <c r="A736" s="30"/>
       <c r="B736" s="30"/>
     </row>
     <row r="737">
+      <c r="A737" s="30"/>
       <c r="B737" s="30"/>
     </row>
     <row r="738">
+      <c r="A738" s="30"/>
       <c r="B738" s="30"/>
     </row>
     <row r="739">
+      <c r="A739" s="30"/>
       <c r="B739" s="30"/>
     </row>
     <row r="740">
+      <c r="A740" s="30"/>
       <c r="B740" s="30"/>
     </row>
     <row r="741">
+      <c r="A741" s="30"/>
       <c r="B741" s="30"/>
     </row>
     <row r="742">
+      <c r="A742" s="30"/>
       <c r="B742" s="30"/>
     </row>
     <row r="743">
+      <c r="A743" s="30"/>
       <c r="B743" s="30"/>
     </row>
     <row r="744">
+      <c r="A744" s="30"/>
       <c r="B744" s="30"/>
     </row>
     <row r="745">
+      <c r="A745" s="30"/>
       <c r="B745" s="30"/>
     </row>
     <row r="746">
+      <c r="A746" s="30"/>
       <c r="B746" s="30"/>
     </row>
     <row r="747">
+      <c r="A747" s="30"/>
       <c r="B747" s="30"/>
     </row>
     <row r="748">
+      <c r="A748" s="30"/>
       <c r="B748" s="30"/>
     </row>
     <row r="749">
+      <c r="A749" s="30"/>
       <c r="B749" s="30"/>
     </row>
     <row r="750">
+      <c r="A750" s="30"/>
       <c r="B750" s="30"/>
     </row>
     <row r="751">
+      <c r="A751" s="30"/>
       <c r="B751" s="30"/>
     </row>
     <row r="752">
+      <c r="A752" s="30"/>
       <c r="B752" s="30"/>
     </row>
     <row r="753">
+      <c r="A753" s="30"/>
       <c r="B753" s="30"/>
     </row>
     <row r="754">
+      <c r="A754" s="30"/>
       <c r="B754" s="30"/>
     </row>
     <row r="755">
+      <c r="A755" s="30"/>
       <c r="B755" s="30"/>
     </row>
     <row r="756">
+      <c r="A756" s="30"/>
       <c r="B756" s="30"/>
     </row>
     <row r="757">
+      <c r="A757" s="30"/>
       <c r="B757" s="30"/>
     </row>
     <row r="758">
+      <c r="A758" s="30"/>
       <c r="B758" s="30"/>
     </row>
     <row r="759">
+      <c r="A759" s="30"/>
       <c r="B759" s="30"/>
     </row>
     <row r="760">
+      <c r="A760" s="30"/>
       <c r="B760" s="30"/>
     </row>
     <row r="761">
+      <c r="A761" s="30"/>
       <c r="B761" s="30"/>
     </row>
     <row r="762">
+      <c r="A762" s="30"/>
       <c r="B762" s="30"/>
     </row>
     <row r="763">
+      <c r="A763" s="30"/>
       <c r="B763" s="30"/>
     </row>
     <row r="764">
+      <c r="A764" s="30"/>
       <c r="B764" s="30"/>
     </row>
     <row r="765">
+      <c r="A765" s="30"/>
       <c r="B765" s="30"/>
     </row>
     <row r="766">
+      <c r="A766" s="30"/>
       <c r="B766" s="30"/>
     </row>
     <row r="767">
+      <c r="A767" s="30"/>
       <c r="B767" s="30"/>
     </row>
     <row r="768">
+      <c r="A768" s="30"/>
       <c r="B768" s="30"/>
     </row>
     <row r="769">
+      <c r="A769" s="30"/>
       <c r="B769" s="30"/>
     </row>
     <row r="770">
+      <c r="A770" s="30"/>
       <c r="B770" s="30"/>
     </row>
     <row r="771">
+      <c r="A771" s="30"/>
       <c r="B771" s="30"/>
     </row>
     <row r="772">
+      <c r="A772" s="30"/>
       <c r="B772" s="30"/>
     </row>
     <row r="773">
+      <c r="A773" s="30"/>
       <c r="B773" s="30"/>
     </row>
     <row r="774">
+      <c r="A774" s="30"/>
       <c r="B774" s="30"/>
     </row>
     <row r="775">
+      <c r="A775" s="30"/>
       <c r="B775" s="30"/>
     </row>
     <row r="776">
+      <c r="A776" s="30"/>
       <c r="B776" s="30"/>
     </row>
     <row r="777">
+      <c r="A777" s="30"/>
       <c r="B777" s="30"/>
     </row>
     <row r="778">
+      <c r="A778" s="30"/>
       <c r="B778" s="30"/>
     </row>
     <row r="779">
+      <c r="A779" s="30"/>
       <c r="B779" s="30"/>
     </row>
     <row r="780">
+      <c r="A780" s="30"/>
       <c r="B780" s="30"/>
     </row>
     <row r="781">
+      <c r="A781" s="30"/>
       <c r="B781" s="30"/>
     </row>
     <row r="782">
+      <c r="A782" s="30"/>
       <c r="B782" s="30"/>
     </row>
     <row r="783">
+      <c r="A783" s="30"/>
       <c r="B783" s="30"/>
     </row>
     <row r="784">
+      <c r="A784" s="30"/>
       <c r="B784" s="30"/>
     </row>
     <row r="785">
+      <c r="A785" s="30"/>
       <c r="B785" s="30"/>
     </row>
     <row r="786">
+      <c r="A786" s="30"/>
       <c r="B786" s="30"/>
     </row>
     <row r="787">
+      <c r="A787" s="30"/>
       <c r="B787" s="30"/>
     </row>
     <row r="788">
+      <c r="A788" s="30"/>
       <c r="B788" s="30"/>
     </row>
     <row r="789">
+      <c r="A789" s="30"/>
       <c r="B789" s="30"/>
     </row>
     <row r="790">
+      <c r="A790" s="30"/>
       <c r="B790" s="30"/>
     </row>
     <row r="791">
+      <c r="A791" s="30"/>
       <c r="B791" s="30"/>
     </row>
     <row r="792">
+      <c r="A792" s="30"/>
       <c r="B792" s="30"/>
     </row>
     <row r="793">
+      <c r="A793" s="30"/>
       <c r="B793" s="30"/>
     </row>
     <row r="794">
+      <c r="A794" s="30"/>
       <c r="B794" s="30"/>
     </row>
     <row r="795">
+      <c r="A795" s="30"/>
       <c r="B795" s="30"/>
     </row>
     <row r="796">
+      <c r="A796" s="30"/>
       <c r="B796" s="30"/>
     </row>
     <row r="797">
+      <c r="A797" s="30"/>
       <c r="B797" s="30"/>
     </row>
     <row r="798">
+      <c r="A798" s="30"/>
       <c r="B798" s="30"/>
     </row>
     <row r="799">
+      <c r="A799" s="30"/>
       <c r="B799" s="30"/>
     </row>
     <row r="800">
+      <c r="A800" s="30"/>
       <c r="B800" s="30"/>
     </row>
     <row r="801">
+      <c r="A801" s="30"/>
       <c r="B801" s="30"/>
     </row>
     <row r="802">
+      <c r="A802" s="30"/>
       <c r="B802" s="30"/>
     </row>
     <row r="803">
+      <c r="A803" s="30"/>
       <c r="B803" s="30"/>
     </row>
     <row r="804">
+      <c r="A804" s="30"/>
       <c r="B804" s="30"/>
     </row>
     <row r="805">
+      <c r="A805" s="30"/>
       <c r="B805" s="30"/>
     </row>
     <row r="806">
+      <c r="A806" s="30"/>
       <c r="B806" s="30"/>
     </row>
     <row r="807">
+      <c r="A807" s="30"/>
       <c r="B807" s="30"/>
     </row>
     <row r="808">
+      <c r="A808" s="30"/>
       <c r="B808" s="30"/>
     </row>
     <row r="809">
+      <c r="A809" s="30"/>
       <c r="B809" s="30"/>
     </row>
     <row r="810">
+      <c r="A810" s="30"/>
       <c r="B810" s="30"/>
     </row>
     <row r="811">
+      <c r="A811" s="30"/>
       <c r="B811" s="30"/>
     </row>
     <row r="812">
+      <c r="A812" s="30"/>
       <c r="B812" s="30"/>
     </row>
     <row r="813">
+      <c r="A813" s="30"/>
       <c r="B813" s="30"/>
     </row>
     <row r="814">
+      <c r="A814" s="30"/>
       <c r="B814" s="30"/>
     </row>
     <row r="815">
+      <c r="A815" s="30"/>
       <c r="B815" s="30"/>
     </row>
     <row r="816">
+      <c r="A816" s="30"/>
       <c r="B816" s="30"/>
     </row>
     <row r="817">
+      <c r="A817" s="30"/>
       <c r="B817" s="30"/>
     </row>
     <row r="818">
+      <c r="A818" s="30"/>
       <c r="B818" s="30"/>
     </row>
     <row r="819">
+      <c r="A819" s="30"/>
       <c r="B819" s="30"/>
     </row>
     <row r="820">
+      <c r="A820" s="30"/>
       <c r="B820" s="30"/>
     </row>
     <row r="821">
+      <c r="A821" s="30"/>
       <c r="B821" s="30"/>
     </row>
     <row r="822">
+      <c r="A822" s="30"/>
       <c r="B822" s="30"/>
     </row>
     <row r="823">
+      <c r="A823" s="30"/>
       <c r="B823" s="30"/>
     </row>
     <row r="824">
+      <c r="A824" s="30"/>
       <c r="B824" s="30"/>
     </row>
     <row r="825">
+      <c r="A825" s="30"/>
       <c r="B825" s="30"/>
     </row>
     <row r="826">
+      <c r="A826" s="30"/>
       <c r="B826" s="30"/>
     </row>
     <row r="827">
+      <c r="A827" s="30"/>
       <c r="B827" s="30"/>
     </row>
     <row r="828">
+      <c r="A828" s="30"/>
       <c r="B828" s="30"/>
     </row>
     <row r="829">
+      <c r="A829" s="30"/>
       <c r="B829" s="30"/>
     </row>
     <row r="830">
+      <c r="A830" s="30"/>
       <c r="B830" s="30"/>
     </row>
     <row r="831">
+      <c r="A831" s="30"/>
       <c r="B831" s="30"/>
     </row>
     <row r="832">
+      <c r="A832" s="30"/>
       <c r="B832" s="30"/>
     </row>
     <row r="833">
+      <c r="A833" s="30"/>
       <c r="B833" s="30"/>
     </row>
     <row r="834">
+      <c r="A834" s="30"/>
       <c r="B834" s="30"/>
     </row>
     <row r="835">
+      <c r="A835" s="30"/>
       <c r="B835" s="30"/>
     </row>
     <row r="836">
+      <c r="A836" s="30"/>
       <c r="B836" s="30"/>
     </row>
     <row r="837">
+      <c r="A837" s="30"/>
       <c r="B837" s="30"/>
     </row>
     <row r="838">
+      <c r="A838" s="30"/>
       <c r="B838" s="30"/>
     </row>
     <row r="839">
+      <c r="A839" s="30"/>
       <c r="B839" s="30"/>
     </row>
     <row r="840">
+      <c r="A840" s="30"/>
       <c r="B840" s="30"/>
     </row>
     <row r="841">
+      <c r="A841" s="30"/>
       <c r="B841" s="30"/>
     </row>
     <row r="842">
+      <c r="A842" s="30"/>
       <c r="B842" s="30"/>
     </row>
     <row r="843">
+      <c r="A843" s="30"/>
       <c r="B843" s="30"/>
     </row>
     <row r="844">
+      <c r="A844" s="30"/>
       <c r="B844" s="30"/>
     </row>
     <row r="845">
+      <c r="A845" s="30"/>
       <c r="B845" s="30"/>
     </row>
     <row r="846">
+      <c r="A846" s="30"/>
       <c r="B846" s="30"/>
     </row>
     <row r="847">
+      <c r="A847" s="30"/>
       <c r="B847" s="30"/>
     </row>
     <row r="848">
+      <c r="A848" s="30"/>
       <c r="B848" s="30"/>
     </row>
     <row r="849">
+      <c r="A849" s="30"/>
       <c r="B849" s="30"/>
     </row>
     <row r="850">
+      <c r="A850" s="30"/>
       <c r="B850" s="30"/>
     </row>
     <row r="851">
+      <c r="A851" s="30"/>
       <c r="B851" s="30"/>
     </row>
     <row r="852">
+      <c r="A852" s="30"/>
       <c r="B852" s="30"/>
     </row>
     <row r="853">
+      <c r="A853" s="30"/>
       <c r="B853" s="30"/>
     </row>
     <row r="854">
+      <c r="A854" s="30"/>
       <c r="B854" s="30"/>
     </row>
     <row r="855">
+      <c r="A855" s="30"/>
       <c r="B855" s="30"/>
     </row>
     <row r="856">
+      <c r="A856" s="30"/>
       <c r="B856" s="30"/>
     </row>
     <row r="857">
+      <c r="A857" s="30"/>
       <c r="B857" s="30"/>
     </row>
     <row r="858">
+      <c r="A858" s="30"/>
       <c r="B858" s="30"/>
     </row>
     <row r="859">
+      <c r="A859" s="30"/>
       <c r="B859" s="30"/>
     </row>
     <row r="860">
+      <c r="A860" s="30"/>
       <c r="B860" s="30"/>
     </row>
     <row r="861">
+      <c r="A861" s="30"/>
       <c r="B861" s="30"/>
     </row>
     <row r="862">
+      <c r="A862" s="30"/>
       <c r="B862" s="30"/>
     </row>
     <row r="863">
+      <c r="A863" s="30"/>
       <c r="B863" s="30"/>
     </row>
     <row r="864">
+      <c r="A864" s="30"/>
       <c r="B864" s="30"/>
     </row>
     <row r="865">
+      <c r="A865" s="30"/>
       <c r="B865" s="30"/>
     </row>
     <row r="866">
+      <c r="A866" s="30"/>
       <c r="B866" s="30"/>
     </row>
     <row r="867">
+      <c r="A867" s="30"/>
       <c r="B867" s="30"/>
     </row>
     <row r="868">
+      <c r="A868" s="30"/>
       <c r="B868" s="30"/>
     </row>
     <row r="869">
+      <c r="A869" s="30"/>
       <c r="B869" s="30"/>
     </row>
     <row r="870">
+      <c r="A870" s="30"/>
       <c r="B870" s="30"/>
     </row>
     <row r="871">
+      <c r="A871" s="30"/>
       <c r="B871" s="30"/>
     </row>
     <row r="872">
+      <c r="A872" s="30"/>
       <c r="B872" s="30"/>
     </row>
     <row r="873">
+      <c r="A873" s="30"/>
       <c r="B873" s="30"/>
     </row>
     <row r="874">
+      <c r="A874" s="30"/>
       <c r="B874" s="30"/>
     </row>
     <row r="875">
+      <c r="A875" s="30"/>
       <c r="B875" s="30"/>
     </row>
     <row r="876">
+      <c r="A876" s="30"/>
       <c r="B876" s="30"/>
     </row>
     <row r="877">
+      <c r="A877" s="30"/>
       <c r="B877" s="30"/>
     </row>
     <row r="878">
+      <c r="A878" s="30"/>
       <c r="B878" s="30"/>
     </row>
     <row r="879">
+      <c r="A879" s="30"/>
       <c r="B879" s="30"/>
     </row>
     <row r="880">
+      <c r="A880" s="30"/>
       <c r="B880" s="30"/>
     </row>
     <row r="881">
+      <c r="A881" s="30"/>
       <c r="B881" s="30"/>
     </row>
     <row r="882">
+      <c r="A882" s="30"/>
       <c r="B882" s="30"/>
     </row>
     <row r="883">
+      <c r="A883" s="30"/>
       <c r="B883" s="30"/>
     </row>
     <row r="884">
+      <c r="A884" s="30"/>
       <c r="B884" s="30"/>
     </row>
     <row r="885">
+      <c r="A885" s="30"/>
       <c r="B885" s="30"/>
     </row>
     <row r="886">
+      <c r="A886" s="30"/>
       <c r="B886" s="30"/>
     </row>
     <row r="887">
+      <c r="A887" s="30"/>
       <c r="B887" s="30"/>
     </row>
     <row r="888">
+      <c r="A888" s="30"/>
       <c r="B888" s="30"/>
     </row>
     <row r="889">
+      <c r="A889" s="30"/>
       <c r="B889" s="30"/>
     </row>
     <row r="890">
+      <c r="A890" s="30"/>
       <c r="B890" s="30"/>
     </row>
     <row r="891">
+      <c r="A891" s="30"/>
       <c r="B891" s="30"/>
     </row>
     <row r="892">
+      <c r="A892" s="30"/>
       <c r="B892" s="30"/>
     </row>
     <row r="893">
+      <c r="A893" s="30"/>
       <c r="B893" s="30"/>
     </row>
     <row r="894">
+      <c r="A894" s="30"/>
       <c r="B894" s="30"/>
     </row>
     <row r="895">
+      <c r="A895" s="30"/>
       <c r="B895" s="30"/>
     </row>
     <row r="896">
+      <c r="A896" s="30"/>
       <c r="B896" s="30"/>
     </row>
     <row r="897">
+      <c r="A897" s="30"/>
       <c r="B897" s="30"/>
     </row>
     <row r="898">
+      <c r="A898" s="30"/>
       <c r="B898" s="30"/>
     </row>
     <row r="899">
+      <c r="A899" s="30"/>
       <c r="B899" s="30"/>
     </row>
     <row r="900">
+      <c r="A900" s="30"/>
       <c r="B900" s="30"/>
     </row>
     <row r="901">
+      <c r="A901" s="30"/>
       <c r="B901" s="30"/>
     </row>
     <row r="902">
+      <c r="A902" s="30"/>
       <c r="B902" s="30"/>
     </row>
     <row r="903">
+      <c r="A903" s="30"/>
       <c r="B903" s="30"/>
     </row>
     <row r="904">
+      <c r="A904" s="30"/>
       <c r="B904" s="30"/>
     </row>
     <row r="905">
+      <c r="A905" s="30"/>
       <c r="B905" s="30"/>
     </row>
     <row r="906">
+      <c r="A906" s="30"/>
       <c r="B906" s="30"/>
     </row>
     <row r="907">
+      <c r="A907" s="30"/>
       <c r="B907" s="30"/>
     </row>
     <row r="908">
+      <c r="A908" s="30"/>
       <c r="B908" s="30"/>
     </row>
     <row r="909">
+      <c r="A909" s="30"/>
       <c r="B909" s="30"/>
     </row>
     <row r="910">
+      <c r="A910" s="30"/>
       <c r="B910" s="30"/>
     </row>
     <row r="911">
+      <c r="A911" s="30"/>
       <c r="B911" s="30"/>
     </row>
     <row r="912">
+      <c r="A912" s="30"/>
       <c r="B912" s="30"/>
     </row>
     <row r="913">
+      <c r="A913" s="30"/>
       <c r="B913" s="30"/>
     </row>
     <row r="914">
+      <c r="A914" s="30"/>
       <c r="B914" s="30"/>
     </row>
     <row r="915">
+      <c r="A915" s="30"/>
       <c r="B915" s="30"/>
     </row>
     <row r="916">
+      <c r="A916" s="30"/>
       <c r="B916" s="30"/>
     </row>
     <row r="917">
+      <c r="A917" s="30"/>
       <c r="B917" s="30"/>
     </row>
     <row r="918">
+      <c r="A918" s="30"/>
       <c r="B918" s="30"/>
     </row>
     <row r="919">
+      <c r="A919" s="30"/>
       <c r="B919" s="30"/>
     </row>
     <row r="920">
+      <c r="A920" s="30"/>
       <c r="B920" s="30"/>
     </row>
     <row r="921">
+      <c r="A921" s="30"/>
       <c r="B921" s="30"/>
     </row>
     <row r="922">
+      <c r="A922" s="30"/>
       <c r="B922" s="30"/>
     </row>
     <row r="923">
+      <c r="A923" s="30"/>
       <c r="B923" s="30"/>
     </row>
     <row r="924">
+      <c r="A924" s="30"/>
       <c r="B924" s="30"/>
     </row>
     <row r="925">
+      <c r="A925" s="30"/>
       <c r="B925" s="30"/>
     </row>
     <row r="926">
+      <c r="A926" s="30"/>
       <c r="B926" s="30"/>
     </row>
     <row r="927">
+      <c r="A927" s="30"/>
       <c r="B927" s="30"/>
     </row>
     <row r="928">
+      <c r="A928" s="30"/>
       <c r="B928" s="30"/>
     </row>
     <row r="929">
+      <c r="A929" s="30"/>
       <c r="B929" s="30"/>
     </row>
     <row r="930">
+      <c r="A930" s="30"/>
       <c r="B930" s="30"/>
     </row>
     <row r="931">
+      <c r="A931" s="30"/>
       <c r="B931" s="30"/>
     </row>
     <row r="932">
+      <c r="A932" s="30"/>
       <c r="B932" s="30"/>
     </row>
     <row r="933">
+      <c r="A933" s="30"/>
       <c r="B933" s="30"/>
     </row>
     <row r="934">
+      <c r="A934" s="30"/>
       <c r="B934" s="30"/>
     </row>
     <row r="935">
+      <c r="A935" s="30"/>
       <c r="B935" s="30"/>
     </row>
     <row r="936">
+      <c r="A936" s="30"/>
       <c r="B936" s="30"/>
     </row>
     <row r="937">
+      <c r="A937" s="30"/>
       <c r="B937" s="30"/>
     </row>
     <row r="938">
+      <c r="A938" s="30"/>
       <c r="B938" s="30"/>
     </row>
     <row r="939">
+      <c r="A939" s="30"/>
       <c r="B939" s="30"/>
     </row>
     <row r="940">
+      <c r="A940" s="30"/>
       <c r="B940" s="30"/>
     </row>
     <row r="941">
+      <c r="A941" s="30"/>
       <c r="B941" s="30"/>
     </row>
     <row r="942">
+      <c r="A942" s="30"/>
       <c r="B942" s="30"/>
     </row>
     <row r="943">
+      <c r="A943" s="30"/>
       <c r="B943" s="30"/>
     </row>
     <row r="944">
+      <c r="A944" s="30"/>
       <c r="B944" s="30"/>
     </row>
     <row r="945">
+      <c r="A945" s="30"/>
       <c r="B945" s="30"/>
     </row>
     <row r="946">
+      <c r="A946" s="30"/>
       <c r="B946" s="30"/>
     </row>
     <row r="947">
+      <c r="A947" s="30"/>
       <c r="B947" s="30"/>
     </row>
     <row r="948">
+      <c r="A948" s="30"/>
       <c r="B948" s="30"/>
     </row>
     <row r="949">
+      <c r="A949" s="30"/>
       <c r="B949" s="30"/>
     </row>
     <row r="950">
+      <c r="A950" s="30"/>
       <c r="B950" s="30"/>
     </row>
     <row r="951">
+      <c r="A951" s="30"/>
       <c r="B951" s="30"/>
     </row>
     <row r="952">
+      <c r="A952" s="30"/>
       <c r="B952" s="30"/>
     </row>
     <row r="953">
+      <c r="A953" s="30"/>
       <c r="B953" s="30"/>
     </row>
     <row r="954">
+      <c r="A954" s="30"/>
       <c r="B954" s="30"/>
     </row>
     <row r="955">
+      <c r="A955" s="30"/>
       <c r="B955" s="30"/>
     </row>
     <row r="956">
+      <c r="A956" s="30"/>
       <c r="B956" s="30"/>
     </row>
     <row r="957">
+      <c r="A957" s="30"/>
       <c r="B957" s="30"/>
     </row>
     <row r="958">
+      <c r="A958" s="30"/>
       <c r="B958" s="30"/>
     </row>
     <row r="959">
+      <c r="A959" s="30"/>
       <c r="B959" s="30"/>
     </row>
     <row r="960">
+      <c r="A960" s="30"/>
       <c r="B960" s="30"/>
     </row>
     <row r="961">
+      <c r="A961" s="30"/>
       <c r="B961" s="30"/>
     </row>
     <row r="962">
+      <c r="A962" s="30"/>
       <c r="B962" s="30"/>
     </row>
     <row r="963">
+      <c r="A963" s="30"/>
       <c r="B963" s="30"/>
     </row>
     <row r="964">
+      <c r="A964" s="30"/>
       <c r="B964" s="30"/>
     </row>
     <row r="965">
+      <c r="A965" s="30"/>
       <c r="B965" s="30"/>
     </row>
     <row r="966">
+      <c r="A966" s="30"/>
       <c r="B966" s="30"/>
     </row>
     <row r="967">
+      <c r="A967" s="30"/>
       <c r="B967" s="30"/>
     </row>
     <row r="968">
+      <c r="A968" s="30"/>
       <c r="B968" s="30"/>
     </row>
     <row r="969">
+      <c r="A969" s="30"/>
       <c r="B969" s="30"/>
     </row>
     <row r="970">
+      <c r="A970" s="30"/>
       <c r="B970" s="30"/>
     </row>
     <row r="971">
+      <c r="A971" s="30"/>
       <c r="B971" s="30"/>
     </row>
     <row r="972">
+      <c r="A972" s="30"/>
       <c r="B972" s="30"/>
     </row>
     <row r="973">
+      <c r="A973" s="30"/>
       <c r="B973" s="30"/>
     </row>
     <row r="974">
+      <c r="A974" s="30"/>
       <c r="B974" s="30"/>
     </row>
     <row r="975">
+      <c r="A975" s="30"/>
       <c r="B975" s="30"/>
     </row>
     <row r="976">
+      <c r="A976" s="30"/>
       <c r="B976" s="30"/>
     </row>
     <row r="977">
+      <c r="A977" s="30"/>
       <c r="B977" s="30"/>
     </row>
   </sheetData>

--- a/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
+++ b/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="141">
   <si>
     <t>Text_ID</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>BS einen Sitz weniger</t>
+  </si>
+  <si>
+    <t>Explainer</t>
+  </si>
+  <si>
+    <t>Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.</t>
   </si>
   <si>
     <t>Disclaimer</t>
@@ -897,7 +903,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="38.0"/>
-    <col customWidth="1" min="2" max="2" width="50.38"/>
+    <col customWidth="1" min="2" max="2" width="74.5"/>
     <col customWidth="1" min="3" max="3" width="35.75"/>
     <col customWidth="1" min="4" max="4" width="42.38"/>
     <col customWidth="1" min="5" max="5" width="61.5"/>
@@ -1133,10 +1139,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="6"/>
@@ -1144,26 +1150,30 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" s="18"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="18"/>
@@ -1175,7 +1185,7 @@
     <row r="25">
       <c r="A25" s="18"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="20"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="9"/>
     </row>
@@ -1196,7 +1206,7 @@
     <row r="28">
       <c r="A28" s="18"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="7"/>
       <c r="E28" s="9"/>
     </row>
@@ -1213,7 +1223,6 @@
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="21"/>
     </row>
     <row r="31">
       <c r="A31" s="18"/>
@@ -1224,8 +1233,8 @@
       <c r="F31" s="21"/>
     </row>
     <row r="32">
-      <c r="A32" s="22"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="9"/>
@@ -1240,9 +1249,9 @@
       <c r="F33" s="21"/>
     </row>
     <row r="34">
-      <c r="A34" s="18"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="9"/>
       <c r="F34" s="21"/>
@@ -1258,7 +1267,7 @@
     <row r="36">
       <c r="A36" s="18"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="23"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="7"/>
       <c r="E36" s="9"/>
       <c r="F36" s="21"/>
@@ -1272,7 +1281,8 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38">
-      <c r="B38" s="6"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="23"/>
       <c r="D38" s="7"/>
       <c r="E38" s="9"/>
@@ -1286,24 +1296,26 @@
       <c r="F39" s="21"/>
     </row>
     <row r="40">
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="25"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41">
-      <c r="B41" s="26"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="25"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="9"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42">
-      <c r="B42" s="21"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43">
-      <c r="B43" s="25"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="25"/>
       <c r="E43" s="9"/>
     </row>
@@ -6093,12 +6105,17 @@
       <c r="E1000" s="9"/>
     </row>
     <row r="1001">
+      <c r="B1001" s="25"/>
       <c r="C1001" s="25"/>
       <c r="E1001" s="9"/>
     </row>
     <row r="1002">
       <c r="C1002" s="25"/>
       <c r="E1002" s="9"/>
+    </row>
+    <row r="1003">
+      <c r="C1003" s="25"/>
+      <c r="E1003" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6156,7 +6173,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -6164,20 +6181,20 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -6199,7 +6216,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
@@ -6207,10 +6224,10 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
@@ -6221,7 +6238,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -6232,33 +6249,33 @@
         <v>40</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -6266,10 +6283,10 @@
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
@@ -11268,7 +11285,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -11276,80 +11293,80 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -11365,10 +11382,10 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
@@ -11376,23 +11393,23 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -11400,10 +11417,10 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
@@ -11411,23 +11428,23 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -11438,12 +11455,12 @@
         <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -11451,7 +11468,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
@@ -11459,10 +11476,10 @@
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -11470,7 +11487,7 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="6"/>
@@ -16518,7 +16535,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -16529,7 +16546,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -16548,10 +16565,10 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -16562,7 +16579,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -21630,7 +21647,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -21641,7 +21658,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -21658,20 +21675,20 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -25748,7 +25765,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -25759,7 +25776,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -25776,25 +25793,25 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7">
@@ -29869,7 +29886,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -29880,7 +29897,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -29899,23 +29916,23 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -34959,121 +34976,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" s="30"/>
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B8" s="30"/>
     </row>
     <row r="9">
       <c r="A9" s="29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B10" s="30"/>
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B11" s="30"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B13" s="30"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" s="30"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B16" s="30"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B17" s="30"/>
     </row>

--- a/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
+++ b/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="214">
   <si>
     <t>Text_ID</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Fédérales 2023 - #Kanton_short CN</t>
   </si>
   <si>
+    <t>Federali 2023 - #Kanton_short CN</t>
+  </si>
+  <si>
     <t>Headline</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
     <t>La répartition des #Sitze_NR sièges dans le canton de #Kanton_f</t>
   </si>
   <si>
+    <t>La ripartizione dei #Sitze_NR seggi nel canton #Kanton_i</t>
+  </si>
+  <si>
     <t>Headline_ein_Sitz</t>
   </si>
   <si>
@@ -60,6 +66,9 @@
   </si>
   <si>
     <t>La répartition du siège du canton de #Kanton_f</t>
+  </si>
+  <si>
+    <t>La ripartizione dei seggi del canton #Kanton_i</t>
   </si>
   <si>
     <t>Version für Kantone mit einem Sitz</t>
@@ -80,6 +89,9 @@
     <t>#Parteien_Gewinner_f ont gagné des sièges dans le canton de #Kanton_f.</t>
   </si>
   <si>
+    <t>Nel canton #Kanton_i hanno guadagnato seggi #Parteien_Gewinner_i.</t>
+  </si>
+  <si>
     <t>#Partien_Gewinner: Liste der Parteien, z.B.: die SVP (+2), die GLP (+1) und die Grünen (+1)</t>
   </si>
   <si>
@@ -92,6 +104,9 @@
     <t>Le #Partei_Gewinner_f a gagné un siège dans le canton de #Kanton_f.</t>
   </si>
   <si>
+    <t>Il partito #Partei_Gewinner_i ha guadagnato seggi nel canton #Kanton_i.</t>
+  </si>
+  <si>
     <t>Text_ein_Gewinner_mehrere_Sitze</t>
   </si>
   <si>
@@ -101,6 +116,9 @@
     <t>Le #Partei_Gewinner_f a gagné #Sitze_Gewinn sièges dans le canton de #Kanton_f.</t>
   </si>
   <si>
+    <t>Il partito #Partei_Gewinner_i ha guadagnato #Sitze_Gewinn seggi nel canton #Kanton_i.</t>
+  </si>
+  <si>
     <t>Text_mehrere_Verlierer</t>
   </si>
   <si>
@@ -108,6 +126,9 @@
   </si>
   <si>
     <t>#Parteien_Verlierer_f ont perdu des sièges.</t>
+  </si>
+  <si>
+    <t>Hanno perso seggi #Parteien_Verlierer_i.</t>
   </si>
   <si>
     <t>#Parteien_Verlierer: Liste der Parteien, z.B.: Die SVP (-2), die GLP (-1) und die Grünen (-1)</t>
@@ -122,6 +143,9 @@
     <t>Le #Partei_Verlierer_f a perdu un siège.</t>
   </si>
   <si>
+    <t xml:space="preserve">Il partito #Partei_Verlierer_i ha perso seggi. </t>
+  </si>
+  <si>
     <t>Text_ein_Verlierer_mehrere_Sitze</t>
   </si>
   <si>
@@ -129,6 +153,9 @@
   </si>
   <si>
     <t>Le #Partei_Verlierer_f perdu #Sitze_Verlust sièges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il partito #Partei_Verlierer_i ha perso #Sitze_Verlust seggi. </t>
   </si>
   <si>
     <t>Text_Special_keineGewinnerVerlierer</t>
@@ -140,6 +167,9 @@
     <t>La répartition des sièges reste inchangée dans le canton de #Kanton_f.</t>
   </si>
   <si>
+    <t xml:space="preserve">La ripartizione dei seggi rimane invariata nel canton  #Kanton_i. </t>
+  </si>
+  <si>
     <t>Text_Special_keinGewinner_ein_Verlierer</t>
   </si>
   <si>
@@ -147,6 +177,9 @@
   </si>
   <si>
     <t>Comme le canton de Bâle-Ville ne dispose plus que de quatre conseillers nationaux au lieu de cinq, aucun parti n'a gagné de siège. #Partei_Verlierer_f a perdu un siège.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siccome Basilea Città non dispone più che di quattro consiglieri nazionali anziché cinque, nessun partito ha guadagnato seggi. #Partei_Verlierer_i ha perso un seggio. </t>
   </si>
   <si>
     <t>BS: ein Sitz weniger, wenn kein Gewinner aber nur ein Verlierer</t>
@@ -161,6 +194,9 @@
     <t>A Zurich, le #Partei_Gewinner_f a gagné un siège. Comme le canton compte un siège de plus qu'en 2019, il n'y a pas de perdant.</t>
   </si>
   <si>
+    <t xml:space="preserve">A Zurigo il partito #Partei_Gewinner_i ha guadagnato un seggio. Siccome il cantone conta un seggio in più rispetto al 2019, non ci sono perdenti. </t>
+  </si>
+  <si>
     <t>ZH: ein Sitz mehr, wenn kein Verlierer und nur ein Gewinner (unwahrscheinlich)</t>
   </si>
   <si>
@@ -173,13 +209,19 @@
     <t>Les résultats des élections au Conseil national dans le canton de #Kanton_f:</t>
   </si>
   <si>
+    <t>I risultati delle elezioni al Consiglio nazionale nel canton #Kanton_i:</t>
+  </si>
+  <si>
     <t>Tabelle</t>
   </si>
   <si>
     <t>((Tabelle: Partei, Anzahl Sitze, Veränderung zu 2019))</t>
   </si>
   <si>
-    <t>((Tableau: parti, nombre de sièges, changement par rapport à 2019))</t>
+    <t>((Tableau: parti, nombre de sièges, différence par rapport à 2019))</t>
+  </si>
+  <si>
+    <t>((Tabella: partito, numero di seggi, variazione rispetto al 2019))</t>
   </si>
   <si>
     <t>Outro_Tabelle</t>
@@ -188,7 +230,10 @@
     <t>Anzahl Sitze 2023: #Sitze_NR.</t>
   </si>
   <si>
-    <t>Nombre de sièges 2023: #Sitze_NR.</t>
+    <t>Nombre de siège(s) en 2023: #Sitze_NR.</t>
+  </si>
+  <si>
+    <t>Numero di seggi 2023: #Sitze_NR.</t>
   </si>
   <si>
     <t>Outro_Tabelle_Special_ZH</t>
@@ -198,6 +243,9 @@
   </si>
   <si>
     <t>Le canton compte un siège de plus qu'en 2019.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il cantone conta un seggio in più rispetto al 2019. </t>
   </si>
   <si>
     <t>ZH einen Sitz mehr</t>
@@ -212,6 +260,9 @@
     <t>Le canton compte un siège de moins qu'en 2019.</t>
   </si>
   <si>
+    <t xml:space="preserve">Il cantone conta un seggio in meno rispetto al 2019. </t>
+  </si>
+  <si>
     <t>BS einen Sitz weniger</t>
   </si>
   <si>
@@ -224,6 +275,9 @@
     <t>Tous les partis ayant obtenu au moins 3% ont été pris en compte.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tutti i partiti che hanno ottenuto almeno il 3% sono stati presi in considerazione. </t>
+  </si>
+  <si>
     <t>Disclaimer</t>
   </si>
   <si>
@@ -233,13 +287,22 @@
     <t>Cette dépêche a été générée automatiquement sur la base des données de l'Office fédéral de la statistique (OFS) et relue avant diffusion.</t>
   </si>
   <si>
+    <t xml:space="preserve">Questa notizia è stata generata automaticamente in base ai dati dell'Ufficio federale di statistica (UST) e riletta prima della diffusione. </t>
+  </si>
+  <si>
     <t>Fédérales 2023 - #Kanton_short CN END</t>
+  </si>
+  <si>
+    <t>Federali 2023 - #Kanton_short CN END</t>
   </si>
   <si>
     <t>Die gewählten Nationalratsmitglieder im Kanton #Kanton_d</t>
   </si>
   <si>
     <t>Les élus au Conseil national dans le canton de #Kanton_f</t>
+  </si>
+  <si>
+    <t>Gli eletti al Consiglio nazionale nel canton #Kanton_i</t>
   </si>
   <si>
     <t>Headline_ein_Sitz_Mann</t>
@@ -251,6 +314,9 @@
     <t>L'élu au Conseil national dans le canton de #Kanton_f</t>
   </si>
   <si>
+    <t>L'eletto al Consiglio nazionale nel canton #Kanton_i</t>
+  </si>
+  <si>
     <t>Headline_ein_Sitz_Frau</t>
   </si>
   <si>
@@ -260,10 +326,16 @@
     <t>L'élue au Conseil national dans le canton de #Kanton_f</t>
   </si>
   <si>
+    <t>L'eletta al Consiglio nazionale nel canton #Kanton_i</t>
+  </si>
+  <si>
     <t>Das Stimmvolk des Kantons #Kanton_d hat folgende #Sitze_NR Personen in den Nationalrat gewählt:</t>
   </si>
   <si>
     <t>Les électeurs du canton de #Kanton_f ont élu les #Sitze_NR candidats suivants au Conseil national:</t>
+  </si>
+  <si>
+    <t>I cittadini del canton #Kanton_i hanno eletto i seguenti #Sitze_NR candidati al Nazionale:</t>
   </si>
   <si>
     <t>Intro_Tabelle_ein_Sitz</t>
@@ -275,10 +347,16 @@
     <t>Les électeurs du canton de #Kanton_f ont élu la personne suivante au Conseil national:</t>
   </si>
   <si>
+    <t>I cittadini del canton #Kanton_i hanno eletto la seguente persona al Nazionale:</t>
+  </si>
+  <si>
     <t>((Tabelle: Gewählt sind, Partei, bisher/neu, Anzahl Stimmen))</t>
   </si>
   <si>
     <t>((Tableau: élu, parti, sortant/nouveau, nombre de voix))</t>
+  </si>
+  <si>
+    <t>((Tabella: eletti, partito, uscenti/nuovi, numero di voti))</t>
   </si>
   <si>
     <t xml:space="preserve">Rangfolge entsprechend der erreichten Anzahl Stimmen.
@@ -287,6 +365,9 @@
   <si>
     <t xml:space="preserve">Classement en fonction du nombre de voix obtenues.
 </t>
+  </si>
+  <si>
+    <t>Classifica in base ai voti ottenuti.</t>
   </si>
   <si>
     <t>Nur bei mehreren Nationalräten</t>
@@ -301,6 +382,9 @@
     <t>N'ont pas été réélus: #Abgewaehlte_NR_f.</t>
   </si>
   <si>
+    <t>Non sono stati rieletti: #Abgewaehlte_NR_i.</t>
+  </si>
+  <si>
     <t>#Abgewaehlte_NR: Liste der Abgewählten, z.B.: Vorname Name (Partei), Vorname Name (Partei) und Vorname Name (Partei)</t>
   </si>
   <si>
@@ -313,13 +397,22 @@
     <t>#Abgewaehlt_NR_f n'a pas été réélu(e).</t>
   </si>
   <si>
+    <t>Non è stata rieletta: #Abgewaehlt_NR_i.</t>
+  </si>
+  <si>
     <t>Wahlen 2023 - #Kanton_short SR</t>
+  </si>
+  <si>
+    <t>Federali 2023 - #Kanton_short SR</t>
   </si>
   <si>
     <t>Headline_TwoElected</t>
   </si>
   <si>
     <t>#Vorname_SR1 #Nachname_SR2 (#Partei_SR2) und #Vorname_SR1 #Nachname_SR2 (#Partei_SR2) in den Ständerat gewählt</t>
+  </si>
+  <si>
+    <t>#Vorname_SR1 #Nachname_SR2 (#Partei_SR2) e #Vorname_SR1 #Nachname_SR2 (#Partei_SR2) eletti al Consiglio degli Stati</t>
   </si>
   <si>
     <t>Achtung: Länge des Titels beachten / ,müsste nicht Kanton auch noch genannt werden?</t>
@@ -331,10 +424,16 @@
     <t>#Vorname_SR #Nachname_SR (#Partei_SR) in Ständerat gewählt - zweiter Wahlgang</t>
   </si>
   <si>
+    <t>#Vorname_SR #Nachname_SR (#Partei_SR) eletto al Consiglio degli Stati - secondo turno</t>
+  </si>
+  <si>
     <t>Headline_OneElected_Halbkanton</t>
   </si>
   <si>
     <t>#Vorname_SR #Nachname_SR (#Partei_SR) in Ständerat gewählt</t>
+  </si>
+  <si>
+    <t>#Vorname_SR #Nachname_SR (#Partei_SR) eletto al Consiglio degli Stati</t>
   </si>
   <si>
     <t>Headline_NobodyElected</t>
@@ -343,10 +442,16 @@
     <t>Niemand im ersten Wahlgang in den Ständerat gewählt OR Kein Wahlentscheid im ersten Wahlgang im Kanton #Kanton_de</t>
   </si>
   <si>
+    <t xml:space="preserve">Nel canton #Kanton_it nessuno è stato eletto per gli Stati al primo turno. </t>
+  </si>
+  <si>
     <t>Headline_TwoElected_Abgewählt</t>
   </si>
   <si>
     <t>#Vorname_SR #Nachname_SR (#Partei_SR) aus dem Ständerat abgewählt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Vorname_SR #Nachname_SR (#Partei_SR) non rieletto agli Stati </t>
   </si>
   <si>
     <t>Zwei Personen gewählt, eine Person abgewählt</t>
@@ -358,6 +463,9 @@
     <t>#Vorname_SR1 #Nachname_SR2 (#Partei_SR2) und #Vorname_SR1 #Nachname_SR2 (#Partei_SR2) aus dem Ständerat abgewählt</t>
   </si>
   <si>
+    <t>#Vorname_SR1 #Nachname_SR2 (#Partei_SR2) e #Vorname_SR1 #Nachname_SR2 (#Partei_SR2) non rieletti agli Stati</t>
+  </si>
+  <si>
     <t>Zwei Personen gewählt, zwei Personen abgewählt</t>
   </si>
   <si>
@@ -367,10 +475,16 @@
     <t xml:space="preserve">Die Stimmberechtigen des Kantons #Kanton_d haben #Vorname_SR1 #Nachname_SR1 (#Partei_SR1, #Status_SR1) und #Vorname_SR2 #Nachname_SR2 (#Partei_SR2, #Status_SR2) in die kleine Kammer gewählt. </t>
   </si>
   <si>
+    <t xml:space="preserve">I cittadini del canton #Kanton_i hanno eletto agli Stati #Vorname_SR1 #Nachname_SR1 (#Partei_SR1, #Status_SR1) e #Vorname_SR2 #Nachname_SR2 (#Partei_SR2, #Status_SR2). </t>
+  </si>
+  <si>
     <t>Lead_OneElected</t>
   </si>
   <si>
     <t>Die Stimmberechtigen des Kantons #Kanton_d haben #Vorname_SR #Nachname_SR (#Partei_SR, #Status_SR) in den Ständerat gewählt. Für den zweiten Sitz gibt es einen zweiten Wahlgang. Dieser findet am #Datum_SR statt.</t>
+  </si>
+  <si>
+    <t>I cittadini del canton #Kanton_i hanno eletto agli Stati #Vorname_SR #Nachname_SR (#Partei_SR, #Status_SR). Per il secondo seggio è necessario un ballottaggio, che si svolgerà alla seguente data: #Datum_SR.</t>
   </si>
   <si>
     <t>zu langer Lead?</t>
@@ -382,16 +496,25 @@
     <t>Die Stimmberechtigen des Kantons #Kanton_d haben #Vorname_SR #Nachname_SR (#Partei_SR, #Status_SR) in den Ständerat gewählt.</t>
   </si>
   <si>
+    <t>I cittadini del canton #Kanton_i hanno eletto agli Stati #Vorname_SR #Nachname_SR (#Partei_SR, #Status_SR).</t>
+  </si>
+  <si>
     <t>Lead_NobodyElected</t>
   </si>
   <si>
     <t>Im Kanton #Kanton_d ist im ersten Wahlgang noch niemand in den Ständerat gewählt worden. Es wird am #Datum_SR zu einem zweiten Wahlgang kommen.</t>
   </si>
   <si>
+    <t>Nel canton #Kanton_i nessuno è stato eletto agli Stati al primo turno. Il ballottaggio si svolgerà alla seguente data: #Datum_SR.</t>
+  </si>
+  <si>
     <t>Lead_Abgewählt</t>
   </si>
   <si>
     <t>Die Stimmberechtigen des Kantons #Kanton_d haben #Vorname_SR #Nachname_SR (#Partei_SR) nicht wieder in den Ständerat gewählt.</t>
+  </si>
+  <si>
+    <t>Nel canton #Kanton_i #Vorname_SR #Nachname_SR (#Partei_SR) non è stato rieletto agli Stati.</t>
   </si>
   <si>
     <t>ODER AUCH FLASH MACHEN? [kommt nur zum Tragen, wenn im ersten Wahlgang zwei Personen gewählt wurden und eine davon ein/e Neugewählte/r ist.]</t>
@@ -403,13 +526,22 @@
     <t>Die Stimmberechtigen des Kantons #Kanton_d haben #Vorname_SR1 #Nachname_SR1 (#Partei_SR1, #Status_SR1) und #Vorname_SR2 #Nachname_SR2 (#Partei_SR2, #Status_SR2) nicht wieder in den Ständerat gewählt.</t>
   </si>
   <si>
+    <t>Nel canton #Kanton_i #Vorname_SR1 #Nachname_SR1 (#Partei_SR1, #Status_SR1) e #Vorname_SR2 #Nachname_SR2 (#Partei_SR2, #Status_SR2) non sono stati rieletti agli Stati.</t>
+  </si>
+  <si>
     <t>Das Wahlresultat im Detail:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risultati in dettaglio: </t>
   </si>
   <si>
     <t>dürfte wahrscheinlich nicht nötig sein, oder?</t>
   </si>
   <si>
     <t>((Tabelle: Stimmen haben erhalten, Partei, bisher/neu/, Anzahl Stimmen))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">((Tabella: hanno ottenuto voti, partito, uscente/nuovo, voti)) </t>
   </si>
   <si>
     <t>Variante: eine Ständerat-Meldung für alle Szenarien (SR_TwoElected, SR_OneElected, SR_NobodyElected, SR_Abgewaehlt)</t>
@@ -1028,267 +1160,307 @@
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="E18" s="8" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="E19" s="8" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22">
@@ -6296,156 +6468,180 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="E2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14">
@@ -11441,209 +11637,243 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="E3" s="8" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="E4" s="8" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="E5" s="8" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="E6" s="8" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="E7" s="8" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="E8" s="8" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="E11" s="8" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="E14" s="8" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="E16" s="8" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="6"/>
@@ -16691,7 +16921,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -16699,10 +16929,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -16710,10 +16940,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -16721,10 +16951,10 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -16732,10 +16962,10 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -21803,7 +22033,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -21811,40 +22041,40 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -25921,7 +26151,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -25929,45 +26159,45 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="19" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
@@ -30042,7 +30272,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -30050,10 +30280,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -30061,10 +30291,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -30072,23 +30302,23 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -35132,121 +35362,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="28" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="30" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="B7" s="31"/>
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="B8" s="31"/>
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="B10" s="31"/>
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="B11" s="31"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="B13" s="31"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="B14" s="31"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="B16" s="31"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="B17" s="31"/>
     </row>

--- a/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
+++ b/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="276">
   <si>
     <t>Text_ID</t>
   </si>
@@ -544,33 +544,60 @@
     <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_i) e #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_i) eletti al Consiglio degli Stati</t>
   </si>
   <si>
-    <t>Achtung: Länge des Titels beachten / ,müsste nicht Kanton auch noch genannt werden?</t>
-  </si>
-  <si>
-    <t>Headline_OneElected</t>
+    <t>Zwei Personen gewählt</t>
+  </si>
+  <si>
+    <t>Headline_TwoElected_FF</t>
+  </si>
+  <si>
+    <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f) et #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_f) sont élues au Conseil des Etats.</t>
+  </si>
+  <si>
+    <t>Zwei Frauen gewählt</t>
+  </si>
+  <si>
+    <t>Headline_OneElected_M</t>
   </si>
   <si>
     <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_d) in Ständerat gewählt - zweiter Wahlgang</t>
   </si>
   <si>
-    <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f) est élu au Conseil des Etats. Deuxième tour est nécessaire.</t>
+    <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f) est élu au Conseil des Etats. Deuxième tour est nécessaire</t>
   </si>
   <si>
     <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_i) eletto al Consiglio degli Stati - secondo turno</t>
   </si>
   <si>
-    <t>Headline_OneElected_Halbkanton</t>
+    <t>Mann gewählt</t>
+  </si>
+  <si>
+    <t>Headline_OneElected_F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f) élue au Conseil des Etats. Deuxième tour est nécessaire.</t>
+  </si>
+  <si>
+    <t>Frau gewählt</t>
+  </si>
+  <si>
+    <t>Headline_OneElected_Halbkanton_M</t>
   </si>
   <si>
     <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_d) in Ständerat gewählt</t>
   </si>
   <si>
-    <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f) est élu au Conseil des Etats.</t>
+    <t xml:space="preserve">#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f) est élu au Conseil des Etats. </t>
   </si>
   <si>
     <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_i) eletto al Consiglio degli Stati</t>
   </si>
   <si>
+    <t>Headline_OneElected_Halbkanton_F</t>
+  </si>
+  <si>
+    <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f) élue au Conseil des Etats.</t>
+  </si>
+  <si>
     <t>Headline_NobodyElected</t>
   </si>
   <si>
@@ -598,13 +625,22 @@
     <t>Zwei Personen gewählt, eine Person abgewählt</t>
   </si>
   <si>
+    <t>Headline_TwoElected_Abgewählt_F</t>
+  </si>
+  <si>
+    <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f) pas réélue au Conseil des Etats.</t>
+  </si>
+  <si>
+    <t>Frau abgewählt</t>
+  </si>
+  <si>
     <t>Headline_TwoElected_Abgewählt_zwei</t>
   </si>
   <si>
     <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_d) und #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_d) aus dem Ständerat abgewählt</t>
   </si>
   <si>
-    <t>Les deux sortants #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f) et #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_f) pas été au Conseil des Etats.</t>
+    <t>Les deux sortants #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f) et #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_f) pas été réélus au Conseil des Etats</t>
   </si>
   <si>
     <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_i) e #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_i) non rieletti agli Stati</t>
@@ -613,6 +649,15 @@
     <t>Zwei Personen gewählt, zwei Personen abgewählt</t>
   </si>
   <si>
+    <t>Headline_TwoElected_Abgewählt_zwei_FF</t>
+  </si>
+  <si>
+    <t>Les deux sortantes #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f) et #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_f) pas été réélues au Conseil des Etats.</t>
+  </si>
+  <si>
+    <t>Zwei Frauen abgewählt</t>
+  </si>
+  <si>
     <t>Lead_TwoElected</t>
   </si>
   <si>
@@ -658,7 +703,7 @@
     <t>Im Kanton #Kanton_d ist im ersten Wahlgang noch niemand in den Ständerat gewählt worden. Es wird am #Datum_SR_d zu einem zweiten Wahlgang kommen.</t>
   </si>
   <si>
-    <t>Aucun candidat en lice dans le canton #Kanton_f n'a été élu lors du premier tour. Un deuxième tour sera nécessaire le #Datum_SR_f pour désigner les deux élus.</t>
+    <t>Aucun candidat en lice dans le canton #Kanton_f n'a été élu lors du premier tour. Un deuxième tour sera nécessaire le #Datum_SR_f.</t>
   </si>
   <si>
     <t>Nel canton #Kanton_i nessuno è stato eletto agli Stati al primo turno. Il ballottaggio si svolgerà alla seguente data: #Datum_SR_i.</t>
@@ -670,7 +715,7 @@
     <t>Die Stimmberechtigen des Kantons #Kanton_d haben #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_d) nicht wieder in den Ständerat gewählt.</t>
   </si>
   <si>
-    <t>Les électeurs du canton de #Kanton_f ont monté la porté au sénateur sortant #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f) .</t>
+    <t>Les électeurs du canton de #Kanton_f ont montré la porte au sénateur sortant #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f).</t>
   </si>
   <si>
     <t>Nel canton #Kanton_i #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_i) non è stato rieletto agli Stati.</t>
@@ -679,6 +724,12 @@
     <t>ODER AUCH FLASH MACHEN? [kommt nur zum Tragen, wenn im ersten Wahlgang zwei Personen gewählt wurden und eine davon ein/e Neugewählte/r ist.]</t>
   </si>
   <si>
+    <t>Lead_Abgewählt_F</t>
+  </si>
+  <si>
+    <t>Les électeurs du canton de #Kanton_f ont montré la porte à la sénatrice sortante #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f).</t>
+  </si>
+  <si>
     <t>Lead_Abgewählt_zwei</t>
   </si>
   <si>
@@ -689,6 +740,12 @@
   </si>
   <si>
     <t>Nel canton #Kanton_i #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_i, #Status_SR1_i) e #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_i, #Status_SR2_i) non sono stati rieletti agli Stati.</t>
+  </si>
+  <si>
+    <t>Lead_Abgewählt_zwei_FF</t>
+  </si>
+  <si>
+    <t>#Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f, #Status_SR1_f) et #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_f, #Status_SR2_f), les deux sortantes du canton de #Kanton_f, n'ont pas été réélues.</t>
   </si>
   <si>
     <t>Das Wahlresultat im Detail:</t>
@@ -2173,7 +2230,7 @@
       <c r="B3" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="23" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -2188,33 +2245,33 @@
         <v>176</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6">
@@ -2222,261 +2279,328 @@
         <v>184</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>219</v>
-      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="24" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="C17" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="B23" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="17" t="s">
+      <c r="B24" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="27"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="27"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="27"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="27"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="27"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="27"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="9"/>
@@ -2490,7 +2614,7 @@
     </row>
     <row r="28">
       <c r="A28" s="27"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="9"/>
@@ -2498,21 +2622,21 @@
     <row r="29">
       <c r="A29" s="27"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="28"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="9"/>
     </row>
     <row r="30">
       <c r="A30" s="27"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="9"/>
     </row>
     <row r="31">
       <c r="A31" s="27"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="28"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="9"/>
     </row>
@@ -2522,6 +2646,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="9"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="27"/>
@@ -2536,139 +2661,153 @@
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="29"/>
     </row>
     <row r="35">
       <c r="A35" s="27"/>
-      <c r="B35" s="6"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="29"/>
     </row>
     <row r="36">
       <c r="A36" s="27"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="7"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="29"/>
     </row>
     <row r="37">
       <c r="A37" s="27"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="7"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="29"/>
     </row>
     <row r="38">
-      <c r="A38" s="30"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="28"/>
       <c r="D38" s="7"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="29"/>
     </row>
     <row r="39">
-      <c r="A39" s="30"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="29"/>
     </row>
     <row r="40">
       <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="31"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="29"/>
     </row>
     <row r="41">
       <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="31"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="9"/>
       <c r="F41" s="29"/>
     </row>
     <row r="42">
       <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="31"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="9"/>
       <c r="F42" s="29"/>
     </row>
     <row r="43">
       <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="31"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="7"/>
       <c r="E43" s="9"/>
       <c r="F43" s="29"/>
     </row>
     <row r="44">
+      <c r="A44" s="27"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="9"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="32"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45">
-      <c r="B45" s="6"/>
-      <c r="C45" s="32"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="9"/>
+      <c r="F45" s="29"/>
     </row>
     <row r="46">
-      <c r="B46" s="33"/>
-      <c r="C46" s="32"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="9"/>
+      <c r="F46" s="29"/>
     </row>
     <row r="47">
-      <c r="B47" s="34"/>
-      <c r="C47" s="32"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="9"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="48">
-      <c r="B48" s="29"/>
-      <c r="C48" s="32"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="9"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="9"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="9"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51">
-      <c r="B51" s="32"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="32"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="9"/>
+      <c r="F51" s="32"/>
     </row>
     <row r="52">
-      <c r="B52" s="32"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="32"/>
       <c r="E52" s="9"/>
     </row>
     <row r="53">
-      <c r="B53" s="32"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="32"/>
       <c r="E53" s="9"/>
     </row>
     <row r="54">
-      <c r="B54" s="32"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="32"/>
       <c r="E54" s="9"/>
     </row>
     <row r="55">
-      <c r="B55" s="32"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="32"/>
       <c r="E55" s="9"/>
     </row>
@@ -7426,6 +7565,41 @@
       <c r="B1006" s="32"/>
       <c r="C1006" s="32"/>
       <c r="E1006" s="9"/>
+    </row>
+    <row r="1007">
+      <c r="B1007" s="32"/>
+      <c r="C1007" s="32"/>
+      <c r="E1007" s="9"/>
+    </row>
+    <row r="1008">
+      <c r="B1008" s="32"/>
+      <c r="C1008" s="32"/>
+      <c r="E1008" s="9"/>
+    </row>
+    <row r="1009">
+      <c r="B1009" s="32"/>
+      <c r="C1009" s="32"/>
+      <c r="E1009" s="9"/>
+    </row>
+    <row r="1010">
+      <c r="B1010" s="32"/>
+      <c r="C1010" s="32"/>
+      <c r="E1010" s="9"/>
+    </row>
+    <row r="1011">
+      <c r="B1011" s="32"/>
+      <c r="C1011" s="32"/>
+      <c r="E1011" s="9"/>
+    </row>
+    <row r="1012">
+      <c r="B1012" s="32"/>
+      <c r="C1012" s="32"/>
+      <c r="E1012" s="9"/>
+    </row>
+    <row r="1013">
+      <c r="B1013" s="32"/>
+      <c r="C1013" s="32"/>
+      <c r="E1013" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7448,121 +7622,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="37" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="37" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B7" s="38"/>
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="B8" s="38"/>
     </row>
     <row r="9">
       <c r="A9" s="37" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="37" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B10" s="38"/>
     </row>
     <row r="11">
       <c r="A11" s="37" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B11" s="38"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B13" s="38"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B14" s="38"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B16" s="38"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B17" s="38"/>
     </row>

--- a/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
+++ b/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="245">
   <si>
     <t>Text_ID</t>
   </si>
@@ -710,18 +710,6 @@
     <t>Zwei Frauen abgewählt</t>
   </si>
   <si>
-    <t>Das Wahlresultat im Detail:</t>
-  </si>
-  <si>
-    <t>Résultats détaillés:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risultati in dettaglio: </t>
-  </si>
-  <si>
-    <t>dürfte wahrscheinlich nicht nötig sein, oder?</t>
-  </si>
-  <si>
     <t>((Tabelle: Stimmen haben erhalten, Partei, bisher/neu/, Anzahl Stimmen))</t>
   </si>
   <si>
@@ -729,6 +717,21 @@
   </si>
   <si>
     <t xml:space="preserve">((Tabella: hanno ottenuto voti, partito, uscente/nuovo, voti)) </t>
+  </si>
+  <si>
+    <t>Tabelle_Outro</t>
+  </si>
+  <si>
+    <t>Absolutes Mehr: #Absolute_Majority Stimmen</t>
+  </si>
+  <si>
+    <t>Majorité absolue: #Absolute_Majority voix</t>
+  </si>
+  <si>
+    <t>Maggioranza assoluta: #Absolute_Majority voti</t>
+  </si>
+  <si>
+    <t>Nur wenn absolutes Mehr verfügbar</t>
   </si>
   <si>
     <t>Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Kanton #Kanton_d erstellt und vor der Publikation überprüft..</t>
@@ -2720,7 +2723,7 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>210</v>
@@ -2731,13 +2734,11 @@
       <c r="D13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>213</v>
-      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>214</v>
@@ -2748,7 +2749,9 @@
       <c r="D14" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
@@ -2770,7 +2773,7 @@
         <v>90</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>92</v>
@@ -7797,121 +7800,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B7" s="42"/>
     </row>
     <row r="8">
       <c r="A8" s="41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B8" s="42"/>
     </row>
     <row r="9">
       <c r="A9" s="41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B10" s="42"/>
     </row>
     <row r="11">
       <c r="A11" s="41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B11" s="42"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B13" s="42"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B14" s="42"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B16" s="42"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B17" s="42"/>
     </row>

--- a/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
+++ b/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
@@ -204,7 +204,7 @@
     <t>Das Resultat der Nationalratswahlen im Kanton #Kanton_d im Überblick:</t>
   </si>
   <si>
-    <t>Les résultats des élections au Conseil national dans le canton de #Kanton_f:</t>
+    <t>Les résultats de l'élection au Conseil national dans le canton de #Kanton_f:</t>
   </si>
   <si>
     <t>I risultati delle elezioni al Consiglio nazionale nel canton #Kanton_i:</t>
@@ -270,7 +270,7 @@
     <t>Berücksichtigt wurden alle Parteien, die einen Wähleranteil von mindestens drei Prozent aufweisen.</t>
   </si>
   <si>
-    <t>Tous les partis ayant obtenu au moins 3% ont été pris en compte.</t>
+    <t>Tous les partis ayant obtenu au moins 3% des voix ont été pris en compte.</t>
   </si>
   <si>
     <t xml:space="preserve">Tutti i partiti che hanno ottenuto almeno il 3% sono stati presi in considerazione. </t>
@@ -611,7 +611,7 @@
     <t>Die Ergebnisse der Ständeratswahl im Kanton #Kanton_short</t>
   </si>
   <si>
-    <t>Les résultats de l'élection au Conseil des Etats dans le canton #Kanton_short</t>
+    <t xml:space="preserve">#Kanton_short: résultats de l'élection au Conseil des Etats </t>
   </si>
   <si>
     <t>I risultati delle elezioni per gli Stati nel canton #Kanton_short</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">Die Stimmberechtigen des Kantons #Kanton_d haben #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_d, #Status_SR1_d) und #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_d, #Status_SR2_d) in die kleine Kammer gewählt. </t>
   </si>
   <si>
-    <t>Les ayants-droit du canton de #Kanton_f ont choisi #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f, #Status_SR1_df et #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_f, #Status_SR2_f) pour représenter le canton au Conseil des Etats.</t>
+    <t>Les ayants-droit du canton de #Kanton_f ont choisi #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_f, #Status_SR1_f) et #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_f, #Status_SR2_f) pour représenter le canton au Conseil des Etats.</t>
   </si>
   <si>
     <t xml:space="preserve">I cittadini del canton #Kanton_i hanno eletto agli Stati #Vorname_SR1 #Nachname_SR1 (#Partei_SR1_i, #Status_SR1_i) e #Vorname_SR2 #Nachname_SR2 (#Partei_SR2_i, #Status_SR2_i). </t>
@@ -674,7 +674,7 @@
     <t>Die Stimmberechtigen des Kantons #Kanton_d haben #Vorname_SR1_out #Nachname_SR1_out (#Partei_SR1_out_d) nicht wieder in den Ständerat gewählt.</t>
   </si>
   <si>
-    <t>Les électeurs du canton de #Kanton_f ont montré la porte au sénateur sortant #Vorname_SR1_out #Nachname_SR1_out (#Partei_SR1_out_f).</t>
+    <t>Les électeurs du canton de #Kanton_f n'ont pas réélu le sénateur sortant #Vorname_SR1_out #Nachname_SR1_out (#Partei_SR1_out_f).</t>
   </si>
   <si>
     <t>Nel canton #Kanton_i #Vorname_SR1_out #Nachname_SR1_out (#Partei_SR1_out_i) non è stato rieletto agli Stati.</t>
@@ -683,7 +683,7 @@
     <t>Lead_Abgewählt_F</t>
   </si>
   <si>
-    <t>Les électeurs du canton de #Kanton_f ont montré la porte à la sénatrice sortante #Vorname_SR1_out #Nachname_SR1_out (#Partei_SR1_out_f).</t>
+    <t>Les électeurs du canton de #Kanton_f n'ont pas réélu la sénatrice sortante #Vorname_SR1_out #Nachname_SR1_out (#Partei_SR1_out_f).</t>
   </si>
   <si>
     <t>Frau abgewählt</t>

--- a/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
+++ b/Texte/Eidgenössische Wahlen 2023_ Textbausteine.xlsx
@@ -38,7 +38,7 @@
     <t>Wahlen 2023 - #Kanton_short NR END</t>
   </si>
   <si>
-    <t>Fédérales - #Kanton_short CN END</t>
+    <t>Fédérales - #Kanton_short CN FIN</t>
   </si>
   <si>
     <t>Federali 2023 - #Kanton_short CN END</t>
@@ -586,7 +586,7 @@
     <t>Wahlen 2023 - #Kanton_short SR END</t>
   </si>
   <si>
-    <t>Fédérales - #Kanton_short CE END</t>
+    <t>Fédérales - #Kanton_short CE FIN</t>
   </si>
   <si>
     <t>Federali 2023 - #Kanton_short CS END</t>
